--- a/data/figure/pareto_curves.xlsx
+++ b/data/figure/pareto_curves.xlsx
@@ -414,13 +414,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3619.570659358055</v>
+        <v>3259.833140409706</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0002407851237872851</v>
+        <v>0.0004342402695835711</v>
       </c>
       <c r="E2">
         <v>0.005</v>
@@ -434,13 +434,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2323.292969737584</v>
+        <v>2323.292969737585</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0002029253323812533</v>
+        <v>0.0003193295773527392</v>
       </c>
       <c r="E3">
         <v>0.005</v>
@@ -454,13 +454,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2322.831473893174</v>
+        <v>2323.292969737585</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0002028797021190492</v>
+        <v>0.0003193295773527392</v>
       </c>
       <c r="E4">
         <v>0.005</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E5">
         <v>0.005</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E6">
         <v>0.005</v>
@@ -514,13 +514,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2322.831473893174</v>
+        <v>2322.831473893173</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E7">
         <v>0.005</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E8">
         <v>0.005</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E9">
         <v>0.005</v>
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E10">
         <v>0.005</v>
@@ -594,13 +594,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E11">
         <v>0.005</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E12">
         <v>0.005</v>
@@ -634,13 +634,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E13">
         <v>0.005</v>
@@ -654,13 +654,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2322.831473893174</v>
+        <v>2322.831473893173</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E14">
         <v>0.005</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E15">
         <v>0.005</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E16">
         <v>0.005</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E17">
         <v>0.005</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E18">
         <v>0.005</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E19">
         <v>0.005</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E20">
         <v>0.005</v>
@@ -794,13 +794,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E21">
         <v>0.005</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E22">
         <v>0.005</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E23">
         <v>0.005</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E24">
         <v>0.005</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E25">
         <v>0.005</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E26">
         <v>0.005</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E27">
         <v>0.005</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E28">
         <v>0.005</v>
@@ -954,13 +954,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2322.831473893174</v>
+        <v>2322.831473893173</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E29">
         <v>0.005</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E30">
         <v>0.005</v>
@@ -994,13 +994,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E31">
         <v>0.005</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E32">
         <v>0.005</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E33">
         <v>0.005</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E34">
         <v>0.005</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E35">
         <v>0.005</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E36">
         <v>0.005</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E37">
         <v>0.005</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E38">
         <v>0.005</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E39">
         <v>0.005</v>
@@ -1174,13 +1174,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2322.831473893174</v>
+        <v>2322.831473893173</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E40">
         <v>0.005</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E41">
         <v>0.005</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E42">
         <v>0.005</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E43">
         <v>0.005</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E44">
         <v>0.005</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E45">
         <v>0.005</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E46">
         <v>0.005</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E47">
         <v>0.005</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E48">
         <v>0.005</v>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E49">
         <v>0.005</v>
@@ -1374,13 +1374,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2317.74556241313</v>
+        <v>2317.745562413131</v>
       </c>
       <c r="C50">
         <v>3.820128443082933</v>
       </c>
       <c r="D50">
-        <v>0.0002040773553125428</v>
+        <v>0.0003207255261350945</v>
       </c>
       <c r="E50">
         <v>0.005</v>
@@ -1400,7 +1400,7 @@
         <v>234.4475691579454</v>
       </c>
       <c r="D51">
-        <v>0.0002777480281995353</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E51">
         <v>0.005</v>
@@ -1414,13 +1414,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2022.458610453345</v>
+        <v>2022.444508954786</v>
       </c>
       <c r="C52">
         <v>234.4475691579454</v>
       </c>
       <c r="D52">
-        <v>0.0002777521842791322</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E52">
         <v>0.005</v>
@@ -1434,13 +1434,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2022.467416962322</v>
+        <v>2022.444508954786</v>
       </c>
       <c r="C53">
         <v>234.4475691579454</v>
       </c>
       <c r="D53">
-        <v>0.0002777547797871292</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E53">
         <v>0.005</v>
@@ -1454,13 +1454,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2022.458610453345</v>
+        <v>2022.45322045061</v>
       </c>
       <c r="C54">
         <v>234.4475691579454</v>
       </c>
       <c r="D54">
-        <v>0.0002777521842791322</v>
+        <v>0.0003907268715539918</v>
       </c>
       <c r="E54">
         <v>0.005</v>
@@ -1474,13 +1474,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2022.473224626205</v>
+        <v>2022.444508954786</v>
       </c>
       <c r="C55">
         <v>234.4475691579454</v>
       </c>
       <c r="D55">
-        <v>0.0002777564914572234</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E55">
         <v>0.005</v>
@@ -1500,7 +1500,7 @@
         <v>234.4475691579454</v>
       </c>
       <c r="D56">
-        <v>0.0002777480281995352</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E56">
         <v>0.005</v>
@@ -1520,7 +1520,7 @@
         <v>234.4475691579454</v>
       </c>
       <c r="D57">
-        <v>0.0002777480281995352</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E57">
         <v>0.005</v>
@@ -1540,7 +1540,7 @@
         <v>885.600730962459</v>
       </c>
       <c r="D58">
-        <v>0.0003926772264792793</v>
+        <v>0.0004979818885867915</v>
       </c>
       <c r="E58">
         <v>0.005</v>
@@ -1554,13 +1554,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1393.918296092219</v>
+        <v>1393.91829609222</v>
       </c>
       <c r="C59">
         <v>885.600730962459</v>
       </c>
       <c r="D59">
-        <v>0.0003926772264792793</v>
+        <v>0.0004979818885867915</v>
       </c>
       <c r="E59">
         <v>0.005</v>
@@ -1574,13 +1574,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1393.925951902261</v>
+        <v>1393.918296092219</v>
       </c>
       <c r="C60">
         <v>885.600730962459</v>
       </c>
       <c r="D60">
-        <v>0.0003926802061218577</v>
+        <v>0.0004979818885867915</v>
       </c>
       <c r="E60">
         <v>0.005</v>
@@ -1594,13 +1594,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1393.918296092219</v>
+        <v>1393.91829609222</v>
       </c>
       <c r="C61">
         <v>885.600730962459</v>
       </c>
       <c r="D61">
-        <v>0.0003926772264792793</v>
+        <v>0.0004979818885867915</v>
       </c>
       <c r="E61">
         <v>0.005</v>
@@ -1620,7 +1620,7 @@
         <v>885.600730962459</v>
       </c>
       <c r="D62">
-        <v>0.0003926772264792793</v>
+        <v>0.0004979818885867915</v>
       </c>
       <c r="E62">
         <v>0.005</v>
@@ -1634,13 +1634,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1393.938428037144</v>
+        <v>1393.91829609222</v>
       </c>
       <c r="C63">
         <v>885.600730962459</v>
       </c>
       <c r="D63">
-        <v>0.0003926850618356893</v>
+        <v>0.0004979818885867915</v>
       </c>
       <c r="E63">
         <v>0.005</v>
@@ -1654,13 +1654,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1393.918296092219</v>
+        <v>1393.933240664614</v>
       </c>
       <c r="C64">
         <v>885.600730962459</v>
       </c>
       <c r="D64">
-        <v>0.0003926772264792793</v>
+        <v>0.0004980034025324566</v>
       </c>
       <c r="E64">
         <v>0.005</v>
@@ -1680,7 +1680,7 @@
         <v>885.600730962459</v>
       </c>
       <c r="D65">
-        <v>0.0003926772264792793</v>
+        <v>0.0004979818885867915</v>
       </c>
       <c r="E65">
         <v>0.005</v>
@@ -1694,13 +1694,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1159.826951208818</v>
+        <v>1164.061822507197</v>
       </c>
       <c r="C66">
-        <v>1225.081016330777</v>
+        <v>1218.848257368907</v>
       </c>
       <c r="D66">
-        <v>0.0004161670567118258</v>
+        <v>0.0005180680247921409</v>
       </c>
       <c r="E66">
         <v>0.005</v>
@@ -1714,13 +1714,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1107.152848735302</v>
+        <v>1107.133128848599</v>
       </c>
       <c r="C67">
         <v>1304.299369850171</v>
       </c>
       <c r="D67">
-        <v>0.000430635249549028</v>
+        <v>0.0005320005155385378</v>
       </c>
       <c r="E67">
         <v>0.005</v>
@@ -1734,13 +1734,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>970.7951434209619</v>
+        <v>970.993252622751</v>
       </c>
       <c r="C68">
-        <v>1523.918706520042</v>
+        <v>1523.597232673604</v>
       </c>
       <c r="D68">
-        <v>0.0004493728520126489</v>
+        <v>0.0005492010886456916</v>
       </c>
       <c r="E68">
         <v>0.005</v>
@@ -1754,13 +1754,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>592.8037714509787</v>
+        <v>592.8141026414366</v>
       </c>
       <c r="C69">
         <v>2155.87192361918</v>
       </c>
       <c r="D69">
-        <v>0.0005023745090179482</v>
+        <v>0.000596309965731619</v>
       </c>
       <c r="E69">
         <v>0.005</v>
@@ -1774,13 +1774,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>534.5357210791919</v>
+        <v>534.5357210791917</v>
       </c>
       <c r="C70">
         <v>2256.559535135038</v>
       </c>
       <c r="D70">
-        <v>0.000524894183157819</v>
+        <v>0.0006178875205068823</v>
       </c>
       <c r="E70">
         <v>0.005</v>
@@ -1794,13 +1794,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>432.5822422426136</v>
+        <v>432.582242242614</v>
       </c>
       <c r="C71">
         <v>2441.742884898694</v>
       </c>
       <c r="D71">
-        <v>0.0005434022243174872</v>
+        <v>0.0006348350980497401</v>
       </c>
       <c r="E71">
         <v>0.005</v>
@@ -1820,7 +1820,7 @@
         <v>2441.742884898694</v>
       </c>
       <c r="D72">
-        <v>0.0005433944524996573</v>
+        <v>0.0006348290271476501</v>
       </c>
       <c r="E72">
         <v>0.005</v>
@@ -1834,13 +1834,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>432.5878221897312</v>
+        <v>432.582242242614</v>
       </c>
       <c r="C73">
         <v>2441.742884898694</v>
       </c>
       <c r="D73">
-        <v>0.0005433944524996573</v>
+        <v>0.0006348350980497401</v>
       </c>
       <c r="E73">
         <v>0.005</v>
@@ -1860,7 +1860,7 @@
         <v>2441.742884898694</v>
       </c>
       <c r="D74">
-        <v>0.0005434022243174872</v>
+        <v>0.0006348350980497402</v>
       </c>
       <c r="E74">
         <v>0.005</v>
@@ -1874,13 +1874,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>432.587822189731</v>
+        <v>432.6150438169873</v>
       </c>
       <c r="C75">
         <v>2441.742884898694</v>
       </c>
       <c r="D75">
-        <v>0.0005433944524996573</v>
+        <v>0.0006346599981130132</v>
       </c>
       <c r="E75">
         <v>0.005</v>
@@ -1894,13 +1894,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>432.5878221897317</v>
+        <v>432.5822422426138</v>
       </c>
       <c r="C76">
         <v>2441.742884898694</v>
       </c>
       <c r="D76">
-        <v>0.0005433944524996573</v>
+        <v>0.0006348350980497401</v>
       </c>
       <c r="E76">
         <v>0.005</v>
@@ -1914,13 +1914,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>323.0038467118717</v>
+        <v>321.8241064220235</v>
       </c>
       <c r="C77">
-        <v>2714.97053144301</v>
+        <v>2717.999186624025</v>
       </c>
       <c r="D77">
-        <v>0.0005410017880027844</v>
+        <v>0.000630330433095731</v>
       </c>
       <c r="E77">
         <v>0.005</v>
@@ -1934,13 +1934,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-112.9144860855603</v>
+        <v>-112.9315052432834</v>
       </c>
       <c r="C78">
         <v>3845.300208136766</v>
       </c>
       <c r="D78">
-        <v>0.0005111121670714231</v>
+        <v>0.0006842629117452266</v>
       </c>
       <c r="E78">
         <v>0.005</v>
@@ -1954,13 +1954,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-254.8111760935385</v>
+        <v>-254.8092097968907</v>
       </c>
       <c r="C79">
         <v>4233.659208746598</v>
       </c>
       <c r="D79">
-        <v>0.0005183207841234918</v>
+        <v>0.0007128246121174162</v>
       </c>
       <c r="E79">
         <v>0.005</v>
@@ -1974,13 +1974,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-254.8111760935385</v>
+        <v>-254.8111760935384</v>
       </c>
       <c r="C80">
         <v>4233.659208746598</v>
       </c>
       <c r="D80">
-        <v>0.0005183207841234919</v>
+        <v>0.0007128246121174164</v>
       </c>
       <c r="E80">
         <v>0.005</v>
@@ -2000,7 +2000,7 @@
         <v>4233.659208746598</v>
       </c>
       <c r="D81">
-        <v>0.0005183207841234919</v>
+        <v>0.0007128246121174164</v>
       </c>
       <c r="E81">
         <v>0.005</v>
@@ -2014,13 +2014,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-254.8111760935384</v>
+        <v>-254.8111760935386</v>
       </c>
       <c r="C82">
         <v>4233.659208746598</v>
       </c>
       <c r="D82">
-        <v>0.0005183207841234919</v>
+        <v>0.0007128246121174162</v>
       </c>
       <c r="E82">
         <v>0.005</v>
@@ -2034,13 +2034,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-254.8111760935387</v>
+        <v>-254.8111760935384</v>
       </c>
       <c r="C83">
         <v>4233.659208746598</v>
       </c>
       <c r="D83">
-        <v>0.0005183207841234919</v>
+        <v>0.0007128246121174164</v>
       </c>
       <c r="E83">
         <v>0.005</v>
@@ -2054,13 +2054,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-254.8111760935385</v>
+        <v>-254.8111760935386</v>
       </c>
       <c r="C84">
         <v>4233.659208746598</v>
       </c>
       <c r="D84">
-        <v>0.0005183207841234918</v>
+        <v>0.0007128246121174164</v>
       </c>
       <c r="E84">
         <v>0.005</v>
@@ -2074,13 +2074,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-254.8111760935385</v>
+        <v>-254.8111760935384</v>
       </c>
       <c r="C85">
         <v>4233.659208746598</v>
       </c>
       <c r="D85">
-        <v>0.0005183207841234919</v>
+        <v>0.0007128246121174162</v>
       </c>
       <c r="E85">
         <v>0.005</v>
@@ -2094,13 +2094,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-254.8111760935384</v>
+        <v>-254.8111760935385</v>
       </c>
       <c r="C86">
         <v>4233.659208746598</v>
       </c>
       <c r="D86">
-        <v>0.0005183207841234918</v>
+        <v>0.0007128246121174164</v>
       </c>
       <c r="E86">
         <v>0.005</v>
@@ -2120,7 +2120,7 @@
         <v>4233.659208746598</v>
       </c>
       <c r="D87">
-        <v>0.0005183207841234919</v>
+        <v>0.0007128246121174162</v>
       </c>
       <c r="E87">
         <v>0.005</v>
@@ -2134,13 +2134,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-254.8111760935384</v>
+        <v>-254.8111760935385</v>
       </c>
       <c r="C88">
         <v>4233.659208746598</v>
       </c>
       <c r="D88">
-        <v>0.0005183207841234918</v>
+        <v>0.0007128246121174162</v>
       </c>
       <c r="E88">
         <v>0.005</v>
@@ -2154,13 +2154,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-254.8111760935385</v>
+        <v>-254.8111760935384</v>
       </c>
       <c r="C89">
         <v>4233.659208746598</v>
       </c>
       <c r="D89">
-        <v>0.0005183207841234918</v>
+        <v>0.0007128246121174164</v>
       </c>
       <c r="E89">
         <v>0.005</v>
@@ -2180,7 +2180,7 @@
         <v>4233.659208746598</v>
       </c>
       <c r="D90">
-        <v>0.0005183207841234919</v>
+        <v>0.0007128246121174164</v>
       </c>
       <c r="E90">
         <v>0.005</v>
@@ -2194,13 +2194,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-254.8111760935385</v>
+        <v>-254.8111760935387</v>
       </c>
       <c r="C91">
         <v>4233.659208746598</v>
       </c>
       <c r="D91">
-        <v>0.0005183207841234919</v>
+        <v>0.0007128246121174164</v>
       </c>
       <c r="E91">
         <v>0.005</v>
@@ -2214,13 +2214,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-254.8111760935382</v>
+        <v>-254.8111760935386</v>
       </c>
       <c r="C92">
         <v>4233.659208746598</v>
       </c>
       <c r="D92">
-        <v>0.0005183207841234918</v>
+        <v>0.0007128246121174162</v>
       </c>
       <c r="E92">
         <v>0.005</v>
@@ -2234,13 +2234,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-254.8111760935385</v>
+        <v>-254.8111760935387</v>
       </c>
       <c r="C93">
         <v>4233.659208746598</v>
       </c>
       <c r="D93">
-        <v>0.0005183207841234919</v>
+        <v>0.0007128246121174165</v>
       </c>
       <c r="E93">
         <v>0.005</v>
@@ -2260,7 +2260,7 @@
         <v>4233.659208746598</v>
       </c>
       <c r="D94">
-        <v>0.0005183207841234918</v>
+        <v>0.0007128246121174162</v>
       </c>
       <c r="E94">
         <v>0.005</v>
@@ -2280,7 +2280,7 @@
         <v>4233.659208746598</v>
       </c>
       <c r="D95">
-        <v>0.0005183207841234918</v>
+        <v>0.0007128246121174162</v>
       </c>
       <c r="E95">
         <v>0.005</v>
@@ -2294,13 +2294,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-254.8111760935385</v>
+        <v>-254.8111760935387</v>
       </c>
       <c r="C96">
         <v>4233.659208746598</v>
       </c>
       <c r="D96">
-        <v>0.0005183207841234918</v>
+        <v>0.0007128246121174164</v>
       </c>
       <c r="E96">
         <v>0.005</v>
@@ -2314,13 +2314,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-254.8111760935384</v>
+        <v>-254.8111760935383</v>
       </c>
       <c r="C97">
         <v>4233.659208746598</v>
       </c>
       <c r="D97">
-        <v>0.0005183207841234919</v>
+        <v>0.0007128246121174162</v>
       </c>
       <c r="E97">
         <v>0.005</v>
@@ -2334,13 +2334,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-254.8111760935388</v>
+        <v>-254.8111760935387</v>
       </c>
       <c r="C98">
         <v>4233.659208746598</v>
       </c>
       <c r="D98">
-        <v>0.0005183207841234919</v>
+        <v>0.0007128246121174164</v>
       </c>
       <c r="E98">
         <v>0.005</v>
@@ -2354,13 +2354,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-254.8111760935385</v>
+        <v>-254.8092097968907</v>
       </c>
       <c r="C99">
         <v>4233.659208746598</v>
       </c>
       <c r="D99">
-        <v>0.0005183207841234919</v>
+        <v>0.0007128246121174164</v>
       </c>
       <c r="E99">
         <v>0.005</v>
@@ -2374,13 +2374,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-254.8111760935384</v>
+        <v>-254.8111760935386</v>
       </c>
       <c r="C100">
         <v>4233.659208746598</v>
       </c>
       <c r="D100">
-        <v>0.0005183207841234919</v>
+        <v>0.0007128246121174162</v>
       </c>
       <c r="E100">
         <v>0.005</v>
@@ -2394,13 +2394,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-254.8111760935385</v>
+        <v>-254.8111760935381</v>
       </c>
       <c r="C101">
         <v>4233.659208746598</v>
       </c>
       <c r="D101">
-        <v>0.0005183207841234919</v>
+        <v>0.0007128246121174162</v>
       </c>
       <c r="E101">
         <v>0.005</v>
@@ -2414,13 +2414,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>3566.970675546178</v>
+        <v>3683.524566656174</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>0.0002396380553830374</v>
+        <v>0.0004818424888358596</v>
       </c>
       <c r="E102">
         <v>0.0005999999999999999</v>
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E103">
         <v>0.0005999999999999999</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E104">
         <v>0.0005999999999999999</v>
@@ -2474,13 +2474,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E105">
         <v>0.0005999999999999999</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E106">
         <v>0.0005999999999999999</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E107">
         <v>0.0005999999999999999</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E108">
         <v>0.0005999999999999999</v>
@@ -2554,13 +2554,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>2322.831473893174</v>
+        <v>2322.831473893173</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E109">
         <v>0.0005999999999999999</v>
@@ -2574,13 +2574,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>2322.831473893174</v>
+        <v>2322.831473893173</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E110">
         <v>0.0005999999999999999</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E111">
         <v>0.0005999999999999999</v>
@@ -2614,13 +2614,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E112">
         <v>0.0005999999999999999</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E113">
         <v>0.0005999999999999999</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E114">
         <v>0.0005999999999999999</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E115">
         <v>0.0005999999999999999</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E116">
         <v>0.0005999999999999999</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E117">
         <v>0.0005999999999999999</v>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E118">
         <v>0.0005999999999999999</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E119">
         <v>0.0005999999999999999</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E120">
         <v>0.0005999999999999999</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E121">
         <v>0.0005999999999999999</v>
@@ -2814,13 +2814,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E122">
         <v>0.0005999999999999999</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="D123">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E123">
         <v>0.0005999999999999999</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E124">
         <v>0.0005999999999999999</v>
@@ -2874,13 +2874,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>2322.831473893174</v>
+        <v>2322.831473893173</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E125">
         <v>0.0005999999999999999</v>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E126">
         <v>0.0005999999999999999</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E127">
         <v>0.0005999999999999999</v>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E128">
         <v>0.0005999999999999999</v>
@@ -2954,13 +2954,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="D129">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E129">
         <v>0.0005999999999999999</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E130">
         <v>0.0005999999999999999</v>
@@ -2994,13 +2994,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>2322.831473893174</v>
+        <v>2322.831473893173</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E131">
         <v>0.0005999999999999999</v>
@@ -3014,13 +3014,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>2322.831473893174</v>
+        <v>2322.831473893173</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E132">
         <v>0.0005999999999999999</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E133">
         <v>0.0005999999999999999</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E134">
         <v>0.0005999999999999999</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E135">
         <v>0.0005999999999999999</v>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E136">
         <v>0.0005999999999999999</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E137">
         <v>0.0005999999999999999</v>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E138">
         <v>0.0005999999999999999</v>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E139">
         <v>0.0005999999999999999</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E140">
         <v>0.0005999999999999999</v>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E141">
         <v>0.0005999999999999999</v>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E142">
         <v>0.0005999999999999999</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E143">
         <v>0.0005999999999999999</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E144">
         <v>0.0005999999999999999</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E145">
         <v>0.0005999999999999999</v>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E146">
         <v>0.0005999999999999999</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E147">
         <v>0.0005999999999999999</v>
@@ -3334,13 +3334,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C148">
         <v>0</v>
       </c>
       <c r="D148">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E148">
         <v>0.0005999999999999999</v>
@@ -3354,13 +3354,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C149">
         <v>0</v>
       </c>
       <c r="D149">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E149">
         <v>0.0005999999999999999</v>
@@ -3374,13 +3374,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>2317.745562413131</v>
+        <v>2317.74556241313</v>
       </c>
       <c r="C150">
         <v>3.820128443082933</v>
       </c>
       <c r="D150">
-        <v>0.0002040773553125429</v>
+        <v>0.0003207255261350946</v>
       </c>
       <c r="E150">
         <v>0.0005999999999999999</v>
@@ -3400,7 +3400,7 @@
         <v>234.4475691579454</v>
       </c>
       <c r="D151">
-        <v>0.0002777480281995352</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E151">
         <v>0.0005999999999999999</v>
@@ -3414,13 +3414,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>2022.447412786727</v>
+        <v>2022.444508954786</v>
       </c>
       <c r="C152">
         <v>234.4475691579454</v>
       </c>
       <c r="D152">
-        <v>0.0002777488840345824</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E152">
         <v>0.0005999999999999999</v>
@@ -3434,13 +3434,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>2022.483774337325</v>
+        <v>2022.484422292821</v>
       </c>
       <c r="C153">
         <v>234.4475691579454</v>
       </c>
       <c r="D153">
-        <v>0.0002777596007323801</v>
+        <v>0.0003907633154577867</v>
       </c>
       <c r="E153">
         <v>0.0005999999999999999</v>
@@ -3454,13 +3454,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>2022.478614628941</v>
+        <v>2022.473224626204</v>
       </c>
       <c r="C154">
         <v>234.4475691579454</v>
       </c>
       <c r="D154">
-        <v>0.0002777580800316789</v>
+        <v>0.000390750236528595</v>
       </c>
       <c r="E154">
         <v>0.0005999999999999999</v>
@@ -3480,7 +3480,7 @@
         <v>234.4475691579454</v>
       </c>
       <c r="D155">
-        <v>0.0002777480281995352</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E155">
         <v>0.0005999999999999999</v>
@@ -3500,7 +3500,7 @@
         <v>234.4475691579454</v>
       </c>
       <c r="D156">
-        <v>0.0002777480281995352</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E156">
         <v>0.0005999999999999999</v>
@@ -3520,7 +3520,7 @@
         <v>234.4475691579454</v>
       </c>
       <c r="D157">
-        <v>0.0002777480281995352</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E157">
         <v>0.0005999999999999999</v>
@@ -3534,13 +3534,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1393.91829609222</v>
+        <v>1444.23948523993</v>
       </c>
       <c r="C158">
-        <v>885.600730962459</v>
+        <v>833.0021033223118</v>
       </c>
       <c r="D158">
-        <v>0.0003926772264792793</v>
+        <v>0.0004894123004995404</v>
       </c>
       <c r="E158">
         <v>0.0005999999999999999</v>
@@ -3560,7 +3560,7 @@
         <v>885.600730962459</v>
       </c>
       <c r="D159">
-        <v>0.0003926800632668347</v>
+        <v>0.0004979923813619002</v>
       </c>
       <c r="E159">
         <v>0.0005999999999999999</v>
@@ -3574,13 +3574,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1393.943531910506</v>
+        <v>1393.948268736178</v>
       </c>
       <c r="C160">
         <v>885.600730962459</v>
       </c>
       <c r="D160">
-        <v>0.000392687048264075</v>
+        <v>0.0004980250366820669</v>
       </c>
       <c r="E160">
         <v>0.0005999999999999999</v>
@@ -3594,13 +3594,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1393.91829609222</v>
+        <v>1393.918296092219</v>
       </c>
       <c r="C161">
         <v>885.600730962459</v>
       </c>
       <c r="D161">
-        <v>0.0003926772264792793</v>
+        <v>0.0004979818885867915</v>
       </c>
       <c r="E161">
         <v>0.0005999999999999999</v>
@@ -3620,7 +3620,7 @@
         <v>885.600730962459</v>
       </c>
       <c r="D162">
-        <v>0.0003926772264792793</v>
+        <v>0.0004979818885867915</v>
       </c>
       <c r="E162">
         <v>0.0005999999999999999</v>
@@ -3634,13 +3634,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>1393.91829609222</v>
+        <v>1393.923399965581</v>
       </c>
       <c r="C163">
         <v>885.600730962459</v>
       </c>
       <c r="D163">
-        <v>0.0003926772264792793</v>
+        <v>0.0004979892360338291</v>
       </c>
       <c r="E163">
         <v>0.0005999999999999999</v>
@@ -3654,13 +3654,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1393.940979973824</v>
+        <v>1393.933240664614</v>
       </c>
       <c r="C164">
         <v>885.600730962459</v>
       </c>
       <c r="D164">
-        <v>0.0003926860550498821</v>
+        <v>0.0004980034025324567</v>
       </c>
       <c r="E164">
         <v>0.0005999999999999999</v>
@@ -3674,13 +3674,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>1393.91829609222</v>
+        <v>1393.948268736178</v>
       </c>
       <c r="C165">
         <v>885.600730962459</v>
       </c>
       <c r="D165">
-        <v>0.0003926772264792793</v>
+        <v>0.0004980250366820669</v>
       </c>
       <c r="E165">
         <v>0.0005999999999999999</v>
@@ -3694,13 +3694,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1164.060849820607</v>
+        <v>1164.05984859989</v>
       </c>
       <c r="C166">
-        <v>1218.84916322512</v>
+        <v>1218.850095654965</v>
       </c>
       <c r="D166">
-        <v>0.0004157826862405665</v>
+        <v>0.000518054067022851</v>
       </c>
       <c r="E166">
         <v>0.0005999999999999999</v>
@@ -3714,13 +3714,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1107.154669301839</v>
+        <v>1107.133128848599</v>
       </c>
       <c r="C167">
         <v>1304.299369850171</v>
       </c>
       <c r="D167">
-        <v>0.0004305914791780309</v>
+        <v>0.0005320005155385377</v>
       </c>
       <c r="E167">
         <v>0.0005999999999999999</v>
@@ -3734,13 +3734,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>972.0128071926591</v>
+        <v>970.9932526227497</v>
       </c>
       <c r="C168">
-        <v>1521.956334360771</v>
+        <v>1523.597232673605</v>
       </c>
       <c r="D168">
-        <v>0.0004492058878345882</v>
+        <v>0.0005492010886456919</v>
       </c>
       <c r="E168">
         <v>0.0005999999999999999</v>
@@ -3754,13 +3754,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>592.8141026414364</v>
+        <v>592.8037714509785</v>
       </c>
       <c r="C169">
         <v>2155.87192361918</v>
       </c>
       <c r="D169">
-        <v>0.0005023601196109311</v>
+        <v>0.0005963212059180261</v>
       </c>
       <c r="E169">
         <v>0.0005999999999999999</v>
@@ -3774,13 +3774,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>534.5357210791917</v>
+        <v>582.8643746202088</v>
       </c>
       <c r="C170">
-        <v>2256.559535135038</v>
+        <v>2173.047273067341</v>
       </c>
       <c r="D170">
-        <v>0.000524894183157819</v>
+        <v>0.0005999999999999998</v>
       </c>
       <c r="E170">
         <v>0.0005999999999999999</v>
@@ -3794,13 +3794,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>432.5822422426136</v>
+        <v>582.292505139791</v>
       </c>
       <c r="C171">
-        <v>2441.742884898694</v>
+        <v>2174.098104716245</v>
       </c>
       <c r="D171">
-        <v>0.0005434022243174872</v>
+        <v>0.0005999999999999996</v>
       </c>
       <c r="E171">
         <v>0.0005999999999999999</v>
@@ -3814,13 +3814,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>432.5878221897312</v>
+        <v>569.3666166617195</v>
       </c>
       <c r="C172">
-        <v>2441.742884898694</v>
+        <v>2198.504084545575</v>
       </c>
       <c r="D172">
-        <v>0.0005433944524996573</v>
+        <v>0.0005999999999999995</v>
       </c>
       <c r="E172">
         <v>0.0005999999999999999</v>
@@ -3834,13 +3834,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>432.5892591714614</v>
+        <v>569.3666166617204</v>
       </c>
       <c r="C173">
-        <v>2441.742884898694</v>
+        <v>2198.504084545572</v>
       </c>
       <c r="D173">
-        <v>0.0005433902178894602</v>
+        <v>0.0005999999999999992</v>
       </c>
       <c r="E173">
         <v>0.0005999999999999999</v>
@@ -3854,13 +3854,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>432.5878221897312</v>
+        <v>536.5717960144757</v>
       </c>
       <c r="C174">
-        <v>2441.742884898694</v>
+        <v>2268.516853723208</v>
       </c>
       <c r="D174">
-        <v>0.0005433944524996573</v>
+        <v>0.0005999999999999993</v>
       </c>
       <c r="E174">
         <v>0.0005999999999999999</v>
@@ -3874,13 +3874,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>432.5878221897312</v>
+        <v>536.5717960144741</v>
       </c>
       <c r="C175">
-        <v>2441.742884898694</v>
+        <v>2268.516853723208</v>
       </c>
       <c r="D175">
-        <v>0.0005433944524996573</v>
+        <v>0.0005999999999999994</v>
       </c>
       <c r="E175">
         <v>0.0005999999999999999</v>
@@ -3894,13 +3894,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>432.5878221897312</v>
+        <v>362.0101943102275</v>
       </c>
       <c r="C176">
-        <v>2441.742884898694</v>
+        <v>2681.757333290023</v>
       </c>
       <c r="D176">
-        <v>0.0005433944524996573</v>
+        <v>0.0006000000000000004</v>
       </c>
       <c r="E176">
         <v>0.0005999999999999999</v>
@@ -3914,13 +3914,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>323.7194844862849</v>
+        <v>268.9515980181955</v>
       </c>
       <c r="C177">
-        <v>2713.144209701244</v>
+        <v>2913.184899056923</v>
       </c>
       <c r="D177">
-        <v>0.0005410211108548453</v>
+        <v>0.0005999999999999994</v>
       </c>
       <c r="E177">
         <v>0.0005999999999999999</v>
@@ -3934,13 +3934,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>-112.9315052432834</v>
+        <v>182.6271614532988</v>
       </c>
       <c r="C178">
-        <v>3845.300208136766</v>
+        <v>3137.162160420713</v>
       </c>
       <c r="D178">
-        <v>0.0005114570371862751</v>
+        <v>0.0006000000000000003</v>
       </c>
       <c r="E178">
         <v>0.0005999999999999999</v>
@@ -3954,13 +3954,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-254.794156935815</v>
+        <v>60.01403038951628</v>
       </c>
       <c r="C179">
-        <v>4233.659208746598</v>
+        <v>3479.625118452743</v>
       </c>
       <c r="D179">
-        <v>0.0005179759140086397</v>
+        <v>0.0006000000000000001</v>
       </c>
       <c r="E179">
         <v>0.0005999999999999999</v>
@@ -3974,13 +3974,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>-254.8111760935388</v>
+        <v>-30.39634898081135</v>
       </c>
       <c r="C180">
-        <v>4233.659208746598</v>
+        <v>3744.645351962592</v>
       </c>
       <c r="D180">
-        <v>0.0005183207841234919</v>
+        <v>0.0006000000000000003</v>
       </c>
       <c r="E180">
         <v>0.0005999999999999999</v>
@@ -3994,13 +3994,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-254.8111760935385</v>
+        <v>-30.41237485728959</v>
       </c>
       <c r="C181">
-        <v>4233.659208746598</v>
+        <v>3744.645351962592</v>
       </c>
       <c r="D181">
-        <v>0.0005183207841234918</v>
+        <v>0.0006000000000000005</v>
       </c>
       <c r="E181">
         <v>0.0005999999999999999</v>
@@ -4014,13 +4014,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-254.8111760935387</v>
+        <v>-37.99140080860752</v>
       </c>
       <c r="C182">
-        <v>4233.659208746598</v>
+        <v>3770.92986030389</v>
       </c>
       <c r="D182">
-        <v>0.0005183207841234919</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E182">
         <v>0.0005999999999999999</v>
@@ -4034,13 +4034,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-254.8111760935386</v>
+        <v>-108.5728899584001</v>
       </c>
       <c r="C183">
-        <v>4233.659208746598</v>
+        <v>4028.928505852232</v>
       </c>
       <c r="D183">
-        <v>0.0005183207841234919</v>
+        <v>0.0005999999999999998</v>
       </c>
       <c r="E183">
         <v>0.0005999999999999999</v>
@@ -4054,13 +4054,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-254.8111760935384</v>
+        <v>-116.6802220547476</v>
       </c>
       <c r="C184">
-        <v>4233.659208746598</v>
+        <v>4059.524529467388</v>
       </c>
       <c r="D184">
-        <v>0.0005183207841234919</v>
+        <v>0.0006000000000000001</v>
       </c>
       <c r="E184">
         <v>0.0005999999999999999</v>
@@ -4074,13 +4074,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-254.8111760935384</v>
+        <v>-125.9471564482234</v>
       </c>
       <c r="C185">
-        <v>4233.659208746598</v>
+        <v>4097.573697568399</v>
       </c>
       <c r="D185">
-        <v>0.0005183207841234919</v>
+        <v>0.0006000000000000002</v>
       </c>
       <c r="E185">
         <v>0.0005999999999999999</v>
@@ -4094,13 +4094,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-254.8111760935385</v>
+        <v>-133.7783445983173</v>
       </c>
       <c r="C186">
-        <v>4233.659208746598</v>
+        <v>4133.004352572424</v>
       </c>
       <c r="D186">
-        <v>0.0005183207841234919</v>
+        <v>0.0005999999999999998</v>
       </c>
       <c r="E186">
         <v>0.0005999999999999999</v>
@@ -4114,13 +4114,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-254.8111760935385</v>
+        <v>-133.7783445983171</v>
       </c>
       <c r="C187">
-        <v>4233.659208746598</v>
+        <v>4133.004352572424</v>
       </c>
       <c r="D187">
-        <v>0.0005183207841234918</v>
+        <v>0.0006000000000000002</v>
       </c>
       <c r="E187">
         <v>0.0005999999999999999</v>
@@ -4134,13 +4134,13 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-254.8111760935383</v>
+        <v>-133.7783445983172</v>
       </c>
       <c r="C188">
-        <v>4233.659208746598</v>
+        <v>4133.004352572424</v>
       </c>
       <c r="D188">
-        <v>0.0005183207841234919</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E188">
         <v>0.0005999999999999999</v>
@@ -4154,13 +4154,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-254.8111760935383</v>
+        <v>-133.7783445983172</v>
       </c>
       <c r="C189">
-        <v>4233.659208746598</v>
+        <v>4133.004352572424</v>
       </c>
       <c r="D189">
-        <v>0.0005183207841234919</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E189">
         <v>0.0005999999999999999</v>
@@ -4174,13 +4174,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>-254.8111760935388</v>
+        <v>-133.7783445983173</v>
       </c>
       <c r="C190">
-        <v>4233.659208746598</v>
+        <v>4133.004352572424</v>
       </c>
       <c r="D190">
-        <v>0.0005183207841234919</v>
+        <v>0.0005999999999999998</v>
       </c>
       <c r="E190">
         <v>0.0005999999999999999</v>
@@ -4194,13 +4194,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-254.8111760935384</v>
+        <v>-133.7783445983171</v>
       </c>
       <c r="C191">
-        <v>4233.659208746598</v>
+        <v>4133.004352572424</v>
       </c>
       <c r="D191">
-        <v>0.0005183207841234918</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E191">
         <v>0.0005999999999999999</v>
@@ -4214,13 +4214,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-254.8111760935384</v>
+        <v>-134.5546463059105</v>
       </c>
       <c r="C192">
-        <v>4233.659208746598</v>
+        <v>4139.206813678695</v>
       </c>
       <c r="D192">
-        <v>0.0005183207841234919</v>
+        <v>0.0006000000000000007</v>
       </c>
       <c r="E192">
         <v>0.0005999999999999999</v>
@@ -4234,13 +4234,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>-254.8111760935385</v>
+        <v>-134.5546463059109</v>
       </c>
       <c r="C193">
-        <v>4233.659208746598</v>
+        <v>4139.206813678696</v>
       </c>
       <c r="D193">
-        <v>0.0005183207841234919</v>
+        <v>0.0006000000000000008</v>
       </c>
       <c r="E193">
         <v>0.0005999999999999999</v>
@@ -4254,13 +4254,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-254.8111760935383</v>
+        <v>-134.5546463059104</v>
       </c>
       <c r="C194">
-        <v>4233.659208746598</v>
+        <v>4139.206813678694</v>
       </c>
       <c r="D194">
-        <v>0.000518320784123492</v>
+        <v>0.0006000000000000007</v>
       </c>
       <c r="E194">
         <v>0.0005999999999999999</v>
@@ -4274,13 +4274,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-254.8111760935385</v>
+        <v>-134.5546463059104</v>
       </c>
       <c r="C195">
-        <v>4233.659208746598</v>
+        <v>4139.206813678694</v>
       </c>
       <c r="D195">
-        <v>0.0005183207841234918</v>
+        <v>0.0006000000000000005</v>
       </c>
       <c r="E195">
         <v>0.0005999999999999999</v>
@@ -4294,13 +4294,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>-254.8111760935382</v>
+        <v>-134.5327710084712</v>
       </c>
       <c r="C196">
-        <v>4233.659208746598</v>
+        <v>4139.206813678694</v>
       </c>
       <c r="D196">
-        <v>0.0005183207841234918</v>
+        <v>0.0006000000000000004</v>
       </c>
       <c r="E196">
         <v>0.0005999999999999999</v>
@@ -4314,13 +4314,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-254.8111760935387</v>
+        <v>-134.5546463059108</v>
       </c>
       <c r="C197">
-        <v>4233.659208746598</v>
+        <v>4139.206813678695</v>
       </c>
       <c r="D197">
-        <v>0.0005183207841234919</v>
+        <v>0.0006000000000000007</v>
       </c>
       <c r="E197">
         <v>0.0005999999999999999</v>
@@ -4334,13 +4334,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-254.8111760935384</v>
+        <v>-134.5546463059105</v>
       </c>
       <c r="C198">
-        <v>4233.659208746598</v>
+        <v>4139.206813678695</v>
       </c>
       <c r="D198">
-        <v>0.0005183207841234919</v>
+        <v>0.0006000000000000008</v>
       </c>
       <c r="E198">
         <v>0.0005999999999999999</v>
@@ -4354,13 +4354,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>-254.8111760935387</v>
+        <v>-134.5546463059104</v>
       </c>
       <c r="C199">
-        <v>4233.659208746598</v>
+        <v>4139.206813678693</v>
       </c>
       <c r="D199">
-        <v>0.0005183207841234919</v>
+        <v>0.0006000000000000005</v>
       </c>
       <c r="E199">
         <v>0.0005999999999999999</v>
@@ -4374,13 +4374,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-254.8111760935385</v>
+        <v>-134.554646305911</v>
       </c>
       <c r="C200">
-        <v>4233.659208746598</v>
+        <v>4139.206813678695</v>
       </c>
       <c r="D200">
-        <v>0.0005183207841234919</v>
+        <v>0.0006000000000000008</v>
       </c>
       <c r="E200">
         <v>0.0005999999999999999</v>
@@ -4394,13 +4394,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>-254.8111760935384</v>
+        <v>-134.5546463059104</v>
       </c>
       <c r="C201">
-        <v>4233.659208746598</v>
+        <v>4139.206813678694</v>
       </c>
       <c r="D201">
-        <v>0.0005183207841234919</v>
+        <v>0.0006000000000000006</v>
       </c>
       <c r="E201">
         <v>0.0005999999999999999</v>
@@ -4414,13 +4414,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>3566.970675546178</v>
+        <v>3683.524566656174</v>
       </c>
       <c r="C202">
         <v>0</v>
       </c>
       <c r="D202">
-        <v>0.0002396380553830374</v>
+        <v>0.0004818424888358596</v>
       </c>
       <c r="E202">
         <v>0.0005</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="D203">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E203">
         <v>0.0005</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E204">
         <v>0.0005</v>
@@ -4474,13 +4474,13 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C205">
         <v>0</v>
       </c>
       <c r="D205">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E205">
         <v>0.0005</v>
@@ -4500,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="D206">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E206">
         <v>0.0005</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E207">
         <v>0.0005</v>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="D208">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E208">
         <v>0.0005</v>
@@ -4554,13 +4554,13 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>2322.831473893174</v>
+        <v>2322.831473893173</v>
       </c>
       <c r="C209">
         <v>0</v>
       </c>
       <c r="D209">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E209">
         <v>0.0005</v>
@@ -4574,13 +4574,13 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>2322.831473893174</v>
+        <v>2322.831473893173</v>
       </c>
       <c r="C210">
         <v>0</v>
       </c>
       <c r="D210">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E210">
         <v>0.0005</v>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="D211">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E211">
         <v>0.0005</v>
@@ -4614,13 +4614,13 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C212">
         <v>0</v>
       </c>
       <c r="D212">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E212">
         <v>0.0005</v>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E213">
         <v>0.0005</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="D214">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E214">
         <v>0.0005</v>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="D215">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E215">
         <v>0.0005</v>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="D216">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E216">
         <v>0.0005</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="D217">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E217">
         <v>0.0005</v>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E218">
         <v>0.0005</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E219">
         <v>0.0005</v>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E220">
         <v>0.0005</v>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="D221">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E221">
         <v>0.0005</v>
@@ -4814,13 +4814,13 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C222">
         <v>0</v>
       </c>
       <c r="D222">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E222">
         <v>0.0005</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="D223">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E223">
         <v>0.0005</v>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="D224">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E224">
         <v>0.0005</v>
@@ -4874,13 +4874,13 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>2322.831473893174</v>
+        <v>2322.831473893173</v>
       </c>
       <c r="C225">
         <v>0</v>
       </c>
       <c r="D225">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E225">
         <v>0.0005</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="D226">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E226">
         <v>0.0005</v>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="D227">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E227">
         <v>0.0005</v>
@@ -4940,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="D228">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E228">
         <v>0.0005</v>
@@ -4954,13 +4954,13 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C229">
         <v>0</v>
       </c>
       <c r="D229">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E229">
         <v>0.0005</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="D230">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E230">
         <v>0.0005</v>
@@ -4994,13 +4994,13 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>2322.831473893174</v>
+        <v>2322.831473893173</v>
       </c>
       <c r="C231">
         <v>0</v>
       </c>
       <c r="D231">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E231">
         <v>0.0005</v>
@@ -5014,13 +5014,13 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>2322.831473893174</v>
+        <v>2322.831473893173</v>
       </c>
       <c r="C232">
         <v>0</v>
       </c>
       <c r="D232">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E232">
         <v>0.0005</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="D233">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E233">
         <v>0.0005</v>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="D234">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E234">
         <v>0.0005</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="D235">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E235">
         <v>0.0005</v>
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="D236">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E236">
         <v>0.0005</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E237">
         <v>0.0005</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="D238">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E238">
         <v>0.0005</v>
@@ -5160,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="D239">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E239">
         <v>0.0005</v>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="D240">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E240">
         <v>0.0005</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="D241">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E241">
         <v>0.0005</v>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="D242">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E242">
         <v>0.0005</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="D243">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E243">
         <v>0.0005</v>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="D244">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E244">
         <v>0.0005</v>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="D245">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E245">
         <v>0.0005</v>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="D246">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E246">
         <v>0.0005</v>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="D247">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E247">
         <v>0.0005</v>
@@ -5334,13 +5334,13 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C248">
         <v>0</v>
       </c>
       <c r="D248">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E248">
         <v>0.0005</v>
@@ -5354,13 +5354,13 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C249">
         <v>0</v>
       </c>
       <c r="D249">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E249">
         <v>0.0005</v>
@@ -5374,13 +5374,13 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>2317.745562413131</v>
+        <v>2317.74556241313</v>
       </c>
       <c r="C250">
         <v>3.820128443082933</v>
       </c>
       <c r="D250">
-        <v>0.0002040773553125429</v>
+        <v>0.0003207255261350946</v>
       </c>
       <c r="E250">
         <v>0.0005</v>
@@ -5400,7 +5400,7 @@
         <v>234.4475691579454</v>
       </c>
       <c r="D251">
-        <v>0.0002777480281995352</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E251">
         <v>0.0005</v>
@@ -5414,13 +5414,13 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>2022.447412786727</v>
+        <v>2022.444508954786</v>
       </c>
       <c r="C252">
         <v>234.4475691579454</v>
       </c>
       <c r="D252">
-        <v>0.0002777488840345824</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E252">
         <v>0.0005</v>
@@ -5434,13 +5434,13 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>2022.483774337325</v>
+        <v>2022.484422292821</v>
       </c>
       <c r="C253">
         <v>234.4475691579454</v>
       </c>
       <c r="D253">
-        <v>0.0002777596007323801</v>
+        <v>0.0003907633154577867</v>
       </c>
       <c r="E253">
         <v>0.0005</v>
@@ -5454,13 +5454,13 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>2022.478614628941</v>
+        <v>2022.473224626204</v>
       </c>
       <c r="C254">
         <v>234.4475691579454</v>
       </c>
       <c r="D254">
-        <v>0.0002777580800316789</v>
+        <v>0.000390750236528595</v>
       </c>
       <c r="E254">
         <v>0.0005</v>
@@ -5480,7 +5480,7 @@
         <v>234.4475691579454</v>
       </c>
       <c r="D255">
-        <v>0.0002777480281995352</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E255">
         <v>0.0005</v>
@@ -5500,7 +5500,7 @@
         <v>234.4475691579454</v>
       </c>
       <c r="D256">
-        <v>0.0002777480281995352</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E256">
         <v>0.0005</v>
@@ -5520,7 +5520,7 @@
         <v>234.4475691579454</v>
       </c>
       <c r="D257">
-        <v>0.0002777480281995352</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E257">
         <v>0.0005</v>
@@ -5534,13 +5534,13 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>1393.91829609222</v>
+        <v>1444.23948523993</v>
       </c>
       <c r="C258">
-        <v>885.600730962459</v>
+        <v>833.0021033223118</v>
       </c>
       <c r="D258">
-        <v>0.0003926772264792793</v>
+        <v>0.0004894123004995404</v>
       </c>
       <c r="E258">
         <v>0.0005</v>
@@ -5560,7 +5560,7 @@
         <v>885.600730962459</v>
       </c>
       <c r="D259">
-        <v>0.0003926800632668347</v>
+        <v>0.0004979923813619002</v>
       </c>
       <c r="E259">
         <v>0.0005</v>
@@ -5574,13 +5574,13 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>1393.943531910506</v>
+        <v>1393.948268736178</v>
       </c>
       <c r="C260">
         <v>885.600730962459</v>
       </c>
       <c r="D260">
-        <v>0.000392687048264075</v>
+        <v>0.0004980250366820669</v>
       </c>
       <c r="E260">
         <v>0.0005</v>
@@ -5594,13 +5594,13 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>1393.91829609222</v>
+        <v>1393.918296092219</v>
       </c>
       <c r="C261">
         <v>885.600730962459</v>
       </c>
       <c r="D261">
-        <v>0.0003926772264792793</v>
+        <v>0.0004979818885867915</v>
       </c>
       <c r="E261">
         <v>0.0005</v>
@@ -5620,7 +5620,7 @@
         <v>885.600730962459</v>
       </c>
       <c r="D262">
-        <v>0.0003926772264792793</v>
+        <v>0.0004979818885867915</v>
       </c>
       <c r="E262">
         <v>0.0005</v>
@@ -5634,13 +5634,13 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>1393.91829609222</v>
+        <v>1393.923399965581</v>
       </c>
       <c r="C263">
         <v>885.600730962459</v>
       </c>
       <c r="D263">
-        <v>0.0003926772264792793</v>
+        <v>0.0004979892360338291</v>
       </c>
       <c r="E263">
         <v>0.0005</v>
@@ -5654,13 +5654,13 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>1393.940979973824</v>
+        <v>1393.933240664614</v>
       </c>
       <c r="C264">
         <v>885.600730962459</v>
       </c>
       <c r="D264">
-        <v>0.0003926860550498821</v>
+        <v>0.0004980034025324567</v>
       </c>
       <c r="E264">
         <v>0.0005</v>
@@ -5674,13 +5674,13 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>1393.91829609222</v>
+        <v>1393.948268736178</v>
       </c>
       <c r="C265">
         <v>885.600730962459</v>
       </c>
       <c r="D265">
-        <v>0.0003926772264792793</v>
+        <v>0.0004980250366820669</v>
       </c>
       <c r="E265">
         <v>0.0005</v>
@@ -5694,13 +5694,13 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>1164.060849820607</v>
+        <v>1370.210900544668</v>
       </c>
       <c r="C266">
-        <v>1218.84916322512</v>
+        <v>919.7380684997805</v>
       </c>
       <c r="D266">
-        <v>0.0004157826862405665</v>
+        <v>0.0004999999999999999</v>
       </c>
       <c r="E266">
         <v>0.0005</v>
@@ -5714,13 +5714,13 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>1107.154669301839</v>
+        <v>1370.133118379894</v>
       </c>
       <c r="C267">
-        <v>1304.299369850171</v>
+        <v>919.8529611454844</v>
       </c>
       <c r="D267">
-        <v>0.0004305914791780309</v>
+        <v>0.0004999999999999999</v>
       </c>
       <c r="E267">
         <v>0.0005</v>
@@ -5734,13 +5734,13 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>972.0128071926591</v>
+        <v>1370.133118379896</v>
       </c>
       <c r="C268">
-        <v>1521.956334360771</v>
+        <v>919.8529611454807</v>
       </c>
       <c r="D268">
-        <v>0.0004492058878345882</v>
+        <v>0.0004999999999999997</v>
       </c>
       <c r="E268">
         <v>0.0005</v>
@@ -5754,13 +5754,13 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>609.4010849486099</v>
+        <v>1366.897992433662</v>
       </c>
       <c r="C269">
-        <v>2127.805500130744</v>
+        <v>925.2802073993427</v>
       </c>
       <c r="D269">
-        <v>0.0004999999999999998</v>
+        <v>0.0004999999999999996</v>
       </c>
       <c r="E269">
         <v>0.0005</v>
@@ -5774,13 +5774,13 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>609.401084948609</v>
+        <v>1366.897992433663</v>
       </c>
       <c r="C270">
-        <v>2127.805500130745</v>
+        <v>925.2802073993403</v>
       </c>
       <c r="D270">
-        <v>0.0004999999999999998</v>
+        <v>0.0004999999999999995</v>
       </c>
       <c r="E270">
         <v>0.0005</v>
@@ -5794,13 +5794,13 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>600.3642974828138</v>
+        <v>1232.529910488761</v>
       </c>
       <c r="C271">
-        <v>2143.923519363349</v>
+        <v>1169.537575822784</v>
       </c>
       <c r="D271">
-        <v>0.0005</v>
+        <v>0.0005000000000000004</v>
       </c>
       <c r="E271">
         <v>0.0005</v>
@@ -5814,13 +5814,13 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>600.6618298386491</v>
+        <v>1232.529910488762</v>
       </c>
       <c r="C272">
-        <v>2143.402536831498</v>
+        <v>1169.537575822783</v>
       </c>
       <c r="D272">
-        <v>0.0004999999999999999</v>
+        <v>0.0005</v>
       </c>
       <c r="E272">
         <v>0.0005</v>
@@ -5834,13 +5834,13 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>600.3112784973243</v>
+        <v>1232.529910488762</v>
       </c>
       <c r="C273">
-        <v>2144.030961227386</v>
+        <v>1169.537575822783</v>
       </c>
       <c r="D273">
-        <v>0.0004999999999999999</v>
+        <v>0.0005000000000000002</v>
       </c>
       <c r="E273">
         <v>0.0005</v>
@@ -5854,13 +5854,13 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>553.8667941276437</v>
+        <v>1047.391561118973</v>
       </c>
       <c r="C274">
-        <v>2244.333826180407</v>
+        <v>1565.401677735534</v>
       </c>
       <c r="D274">
-        <v>0.0004999999999999998</v>
+        <v>0.0004999999999999991</v>
       </c>
       <c r="E274">
         <v>0.0005</v>
@@ -5874,13 +5874,13 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>543.3511549335572</v>
+        <v>550.8228174784948</v>
       </c>
       <c r="C275">
-        <v>2267.575450277801</v>
+        <v>2679.31958953058</v>
       </c>
       <c r="D275">
-        <v>0.0005</v>
+        <v>0.0004999999999999998</v>
       </c>
       <c r="E275">
         <v>0.0005</v>
@@ -5894,10 +5894,10 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>343.8627640572389</v>
+        <v>547.4554529625618</v>
       </c>
       <c r="C276">
-        <v>2743.822284450456</v>
+        <v>2687.030719450393</v>
       </c>
       <c r="D276">
         <v>0.0004999999999999999</v>
@@ -5914,13 +5914,13 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>-90.85234976770641</v>
+        <v>423.110758630929</v>
       </c>
       <c r="C277">
-        <v>3809.333280521659</v>
+        <v>3000.167429635272</v>
       </c>
       <c r="D277">
-        <v>0.0004999999999999999</v>
+        <v>0.0005000000000000001</v>
       </c>
       <c r="E277">
         <v>0.0005</v>
@@ -5934,13 +5934,13 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>-92.07913573226176</v>
+        <v>312.4163140353255</v>
       </c>
       <c r="C278">
-        <v>3812.58588111804</v>
+        <v>3288.961099357816</v>
       </c>
       <c r="D278">
-        <v>0.0004999999999999999</v>
+        <v>0.0004999999999999998</v>
       </c>
       <c r="E278">
         <v>0.0005</v>
@@ -5954,13 +5954,13 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>-97.76667385654434</v>
+        <v>312.3897328717151</v>
       </c>
       <c r="C279">
-        <v>3828.796550229055</v>
+        <v>3289.040552872879</v>
       </c>
       <c r="D279">
-        <v>0.0004999999999999998</v>
+        <v>0.0004999999999999999</v>
       </c>
       <c r="E279">
         <v>0.0005</v>
@@ -5974,10 +5974,10 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>-214.1120236710136</v>
+        <v>312.3897328717158</v>
       </c>
       <c r="C280">
-        <v>4164.778025981256</v>
+        <v>3289.040552872878</v>
       </c>
       <c r="D280">
         <v>0.0004999999999999997</v>
@@ -5994,13 +5994,13 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>-214.1120236710174</v>
+        <v>312.2507533573287</v>
       </c>
       <c r="C281">
-        <v>4164.77802598126</v>
+        <v>3289.506610584879</v>
       </c>
       <c r="D281">
-        <v>0.0004999999999999999</v>
+        <v>0.0004999999999999998</v>
       </c>
       <c r="E281">
         <v>0.0005</v>
@@ -6014,13 +6014,13 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>-214.1040931196075</v>
+        <v>312.0180901205915</v>
       </c>
       <c r="C282">
-        <v>4164.778025981259</v>
+        <v>3290.286829858615</v>
       </c>
       <c r="D282">
-        <v>0.0004999999999999999</v>
+        <v>0.0005000000000000003</v>
       </c>
       <c r="E282">
         <v>0.0005</v>
@@ -6034,13 +6034,13 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>-214.15739132832</v>
+        <v>211.8610573375977</v>
       </c>
       <c r="C283">
-        <v>4164.978368490743</v>
+        <v>3644.440366843661</v>
       </c>
       <c r="D283">
-        <v>0.0004999999999999999</v>
+        <v>0.0004999999999999997</v>
       </c>
       <c r="E283">
         <v>0.0005</v>
@@ -6054,13 +6054,13 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>-214.1333307941547</v>
+        <v>208.3502170283864</v>
       </c>
       <c r="C284">
-        <v>4164.87234831406</v>
+        <v>3657.962337493133</v>
       </c>
       <c r="D284">
-        <v>0.0004999999999999999</v>
+        <v>0.0004999999999999998</v>
       </c>
       <c r="E284">
         <v>0.0005</v>
@@ -6074,10 +6074,10 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>-214.1285001993724</v>
+        <v>208.3502170283863</v>
       </c>
       <c r="C285">
-        <v>4164.85106281355</v>
+        <v>3657.962337493132</v>
       </c>
       <c r="D285">
         <v>0.0004999999999999998</v>
@@ -6094,10 +6094,10 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>-214.1447709626948</v>
+        <v>208.3502170283863</v>
       </c>
       <c r="C286">
-        <v>4164.922551065047</v>
+        <v>3657.962337493132</v>
       </c>
       <c r="D286">
         <v>0.0004999999999999999</v>
@@ -6114,13 +6114,13 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>-214.1631240163624</v>
+        <v>208.3362342783162</v>
       </c>
       <c r="C287">
-        <v>4165.003628968965</v>
+        <v>3657.962337493131</v>
       </c>
       <c r="D287">
-        <v>0.0004999999999999999</v>
+        <v>0.0004999999999999996</v>
       </c>
       <c r="E287">
         <v>0.0005</v>
@@ -6134,10 +6134,10 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>-214.1631240163516</v>
+        <v>208.3362342783163</v>
       </c>
       <c r="C288">
-        <v>4165.003628968955</v>
+        <v>3657.962337493131</v>
       </c>
       <c r="D288">
         <v>0.0004999999999999997</v>
@@ -6154,13 +6154,13 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>-214.1631240163556</v>
+        <v>208.3362342783161</v>
       </c>
       <c r="C289">
-        <v>4165.003628968958</v>
+        <v>3657.962337493131</v>
       </c>
       <c r="D289">
-        <v>0.0004999999999999997</v>
+        <v>0.0004999999999999996</v>
       </c>
       <c r="E289">
         <v>0.0005</v>
@@ -6174,13 +6174,13 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>-214.1631240163636</v>
+        <v>208.3362342783165</v>
       </c>
       <c r="C290">
-        <v>4165.003628968965</v>
+        <v>3657.96233749313</v>
       </c>
       <c r="D290">
-        <v>0.0004999999999999998</v>
+        <v>0.0004999999999999996</v>
       </c>
       <c r="E290">
         <v>0.0005</v>
@@ -6194,13 +6194,13 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>-214.163124016358</v>
+        <v>208.3362342783163</v>
       </c>
       <c r="C291">
-        <v>4165.003628968961</v>
+        <v>3657.96233749313</v>
       </c>
       <c r="D291">
-        <v>0.0004999999999999997</v>
+        <v>0.0004999999999999996</v>
       </c>
       <c r="E291">
         <v>0.0005</v>
@@ -6214,13 +6214,13 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>-214.1631240163642</v>
+        <v>207.3816503201488</v>
       </c>
       <c r="C292">
-        <v>4165.003628968966</v>
+        <v>3665.675120196838</v>
       </c>
       <c r="D292">
-        <v>0.0004999999999999998</v>
+        <v>0.0004999999999999996</v>
       </c>
       <c r="E292">
         <v>0.0005</v>
@@ -6234,13 +6234,13 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>-214.1631240163631</v>
+        <v>200.0538021180084</v>
       </c>
       <c r="C293">
-        <v>4165.003628968965</v>
+        <v>3735.515807252414</v>
       </c>
       <c r="D293">
-        <v>0.0004999999999999998</v>
+        <v>0.0005000000000000001</v>
       </c>
       <c r="E293">
         <v>0.0005</v>
@@ -6254,13 +6254,13 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>-214.1631240163418</v>
+        <v>200.063552768486</v>
       </c>
       <c r="C294">
-        <v>4165.003628968945</v>
+        <v>3735.515807252414</v>
       </c>
       <c r="D294">
-        <v>0.0004999999999999997</v>
+        <v>0.0005000000000000001</v>
       </c>
       <c r="E294">
         <v>0.0005</v>
@@ -6274,13 +6274,13 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>-214.1631240163638</v>
+        <v>200.0538021180089</v>
       </c>
       <c r="C295">
-        <v>4165.003628968965</v>
+        <v>3735.515807252414</v>
       </c>
       <c r="D295">
-        <v>0.0004999999999999998</v>
+        <v>0.0005000000000000001</v>
       </c>
       <c r="E295">
         <v>0.0005</v>
@@ -6294,13 +6294,13 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>-214.1631240163634</v>
+        <v>200.0635527684863</v>
       </c>
       <c r="C296">
-        <v>4165.003628968965</v>
+        <v>3735.515807252413</v>
       </c>
       <c r="D296">
-        <v>0.0004999999999999999</v>
+        <v>0.0005000000000000001</v>
       </c>
       <c r="E296">
         <v>0.0005</v>
@@ -6314,13 +6314,13 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>-214.1631240163629</v>
+        <v>200.0538021180106</v>
       </c>
       <c r="C297">
-        <v>4165.003628968964</v>
+        <v>3735.51580725241</v>
       </c>
       <c r="D297">
-        <v>0.0004999999999999997</v>
+        <v>0.0004999999999999995</v>
       </c>
       <c r="E297">
         <v>0.0005</v>
@@ -6334,10 +6334,10 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>-214.1631240163641</v>
+        <v>200.0635527684868</v>
       </c>
       <c r="C298">
-        <v>4165.003628968966</v>
+        <v>3735.515807252413</v>
       </c>
       <c r="D298">
         <v>0.0004999999999999999</v>
@@ -6354,10 +6354,10 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>-214.1631240163604</v>
+        <v>200.0538021180091</v>
       </c>
       <c r="C299">
-        <v>4165.003628968965</v>
+        <v>3735.515807252413</v>
       </c>
       <c r="D299">
         <v>0.0004999999999999998</v>
@@ -6374,13 +6374,13 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>-214.1631240163596</v>
+        <v>200.05380211801</v>
       </c>
       <c r="C300">
-        <v>4165.003628968961</v>
+        <v>3735.515807252412</v>
       </c>
       <c r="D300">
-        <v>0.0004999999999999998</v>
+        <v>0.0004999999999999997</v>
       </c>
       <c r="E300">
         <v>0.0005</v>
@@ -6394,13 +6394,13 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>-214.1631240163636</v>
+        <v>200.0546771681205</v>
       </c>
       <c r="C301">
-        <v>4165.003628968965</v>
+        <v>3735.515807252415</v>
       </c>
       <c r="D301">
-        <v>0.0004999999999999997</v>
+        <v>0.0005000000000000003</v>
       </c>
       <c r="E301">
         <v>0.0005</v>
@@ -6414,13 +6414,13 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>3566.970675546178</v>
+        <v>3256.884327391451</v>
       </c>
       <c r="C302">
         <v>0</v>
       </c>
       <c r="D302">
-        <v>0.0002396380553830374</v>
+        <v>0.0004000066405945358</v>
       </c>
       <c r="E302">
         <v>0.0004</v>
@@ -6434,13 +6434,13 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>2323.292969737585</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C303">
         <v>0</v>
       </c>
       <c r="D303">
-        <v>0.0002029253323812533</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E303">
         <v>0.0004</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="D304">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E304">
         <v>0.0004</v>
@@ -6474,13 +6474,13 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C305">
         <v>0</v>
       </c>
       <c r="D305">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E305">
         <v>0.0004</v>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="D306">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E306">
         <v>0.0004</v>
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="D307">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E307">
         <v>0.0004</v>
@@ -6540,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="D308">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E308">
         <v>0.0004</v>
@@ -6554,13 +6554,13 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>2322.831473893174</v>
+        <v>2322.831473893173</v>
       </c>
       <c r="C309">
         <v>0</v>
       </c>
       <c r="D309">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E309">
         <v>0.0004</v>
@@ -6574,13 +6574,13 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>2322.831473893174</v>
+        <v>2322.831473893173</v>
       </c>
       <c r="C310">
         <v>0</v>
       </c>
       <c r="D310">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E310">
         <v>0.0004</v>
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="D311">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E311">
         <v>0.0004</v>
@@ -6620,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="D312">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E312">
         <v>0.0004</v>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="D313">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E313">
         <v>0.0004</v>
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="D314">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E314">
         <v>0.0004</v>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="D315">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E315">
         <v>0.0004</v>
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="D316">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E316">
         <v>0.0004</v>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="D317">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E317">
         <v>0.0004</v>
@@ -6740,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="D318">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E318">
         <v>0.0004</v>
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="D319">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E319">
         <v>0.0004</v>
@@ -6780,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="D320">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E320">
         <v>0.0004</v>
@@ -6800,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="D321">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E321">
         <v>0.0004</v>
@@ -6814,13 +6814,13 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C322">
         <v>0</v>
       </c>
       <c r="D322">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E322">
         <v>0.0004</v>
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="D323">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E323">
         <v>0.0004</v>
@@ -6860,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="D324">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E324">
         <v>0.0004</v>
@@ -6874,13 +6874,13 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>2322.831473893174</v>
+        <v>2322.831473893173</v>
       </c>
       <c r="C325">
         <v>0</v>
       </c>
       <c r="D325">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E325">
         <v>0.0004</v>
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="D326">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E326">
         <v>0.0004</v>
@@ -6914,13 +6914,13 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C327">
         <v>0</v>
       </c>
       <c r="D327">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E327">
         <v>0.0004</v>
@@ -6940,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="D328">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E328">
         <v>0.0004</v>
@@ -6954,13 +6954,13 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C329">
         <v>0</v>
       </c>
       <c r="D329">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E329">
         <v>0.0004</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="D330">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E330">
         <v>0.0004</v>
@@ -7000,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="D331">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284532</v>
       </c>
       <c r="E331">
         <v>0.0004</v>
@@ -7014,13 +7014,13 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>2322.831473893174</v>
+        <v>2322.831473893173</v>
       </c>
       <c r="C332">
         <v>0</v>
       </c>
       <c r="D332">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E332">
         <v>0.0004</v>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="D333">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E333">
         <v>0.0004</v>
@@ -7060,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="D334">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E334">
         <v>0.0004</v>
@@ -7080,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="D335">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E335">
         <v>0.0004</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="D336">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E336">
         <v>0.0004</v>
@@ -7120,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="D337">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E337">
         <v>0.0004</v>
@@ -7140,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="D338">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E338">
         <v>0.0004</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="D339">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E339">
         <v>0.0004</v>
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="D340">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E340">
         <v>0.0004</v>
@@ -7200,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="D341">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E341">
         <v>0.0004</v>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="D342">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E342">
         <v>0.0004</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="D343">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E343">
         <v>0.0004</v>
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="D344">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E344">
         <v>0.0004</v>
@@ -7280,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="D345">
-        <v>0.0002028797021190492</v>
+        <v>0.000319594126228453</v>
       </c>
       <c r="E345">
         <v>0.0004</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="D346">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E346">
         <v>0.0004</v>
@@ -7320,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="D347">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E347">
         <v>0.0004</v>
@@ -7334,13 +7334,13 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C348">
         <v>0</v>
       </c>
       <c r="D348">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E348">
         <v>0.0004</v>
@@ -7354,13 +7354,13 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>2322.831473893173</v>
+        <v>2322.831473893174</v>
       </c>
       <c r="C349">
         <v>0</v>
       </c>
       <c r="D349">
-        <v>0.0002028797021190492</v>
+        <v>0.0003195941262284531</v>
       </c>
       <c r="E349">
         <v>0.0004</v>
@@ -7374,13 +7374,13 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>2317.745562413131</v>
+        <v>2317.74556241313</v>
       </c>
       <c r="C350">
         <v>3.820128443082933</v>
       </c>
       <c r="D350">
-        <v>0.0002040773553125429</v>
+        <v>0.0003207255261350946</v>
       </c>
       <c r="E350">
         <v>0.0004</v>
@@ -7400,7 +7400,7 @@
         <v>234.4475691579454</v>
       </c>
       <c r="D351">
-        <v>0.0002777480281995352</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E351">
         <v>0.0004</v>
@@ -7420,7 +7420,7 @@
         <v>234.4475691579454</v>
       </c>
       <c r="D352">
-        <v>0.0002777480281995352</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E352">
         <v>0.0004</v>
@@ -7434,13 +7434,13 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>2022.483774337325</v>
+        <v>2022.484422292821</v>
       </c>
       <c r="C353">
         <v>234.4475691579454</v>
       </c>
       <c r="D353">
-        <v>0.0002777596007323801</v>
+        <v>0.0003907633154577867</v>
       </c>
       <c r="E353">
         <v>0.0004</v>
@@ -7454,13 +7454,13 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>2022.484422292821</v>
+        <v>2022.473224626204</v>
       </c>
       <c r="C354">
         <v>234.4475691579454</v>
       </c>
       <c r="D354">
-        <v>0.0002777597917017731</v>
+        <v>0.000390750236528595</v>
       </c>
       <c r="E354">
         <v>0.0004</v>
@@ -7480,7 +7480,7 @@
         <v>234.4475691579454</v>
       </c>
       <c r="D355">
-        <v>0.0002777480281995352</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E355">
         <v>0.0004</v>
@@ -7500,7 +7500,7 @@
         <v>234.4475691579454</v>
       </c>
       <c r="D356">
-        <v>0.0002777480281995352</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E356">
         <v>0.0004</v>
@@ -7520,7 +7520,7 @@
         <v>234.4475691579454</v>
       </c>
       <c r="D357">
-        <v>0.0002777480281995352</v>
+        <v>0.0003907166964844063</v>
       </c>
       <c r="E357">
         <v>0.0004</v>
@@ -7534,13 +7534,13 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>1393.91829609222</v>
+        <v>1968.774903867347</v>
       </c>
       <c r="C358">
-        <v>885.600730962459</v>
+        <v>289.9134666665275</v>
       </c>
       <c r="D358">
-        <v>0.0003926772264792793</v>
+        <v>0.0003999999999999997</v>
       </c>
       <c r="E358">
         <v>0.0004</v>
@@ -7554,13 +7554,13 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>1393.925584854573</v>
+        <v>1968.665386395453</v>
       </c>
       <c r="C359">
-        <v>885.600730962459</v>
+        <v>290.0120502579788</v>
       </c>
       <c r="D359">
-        <v>0.0003926800632668347</v>
+        <v>0.0003999999999999999</v>
       </c>
       <c r="E359">
         <v>0.0004</v>
@@ -7574,13 +7574,13 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>1393.943531910506</v>
+        <v>1966.168460182794</v>
       </c>
       <c r="C360">
-        <v>885.600730962459</v>
+        <v>292.795443856704</v>
       </c>
       <c r="D360">
-        <v>0.000392687048264075</v>
+        <v>0.0003999999999999995</v>
       </c>
       <c r="E360">
         <v>0.0004</v>
@@ -7594,13 +7594,13 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>1393.91829609222</v>
+        <v>1965.754371968641</v>
       </c>
       <c r="C361">
-        <v>885.600730962459</v>
+        <v>293.2570395893856</v>
       </c>
       <c r="D361">
-        <v>0.0003926772264792793</v>
+        <v>0.0003999999999999997</v>
       </c>
       <c r="E361">
         <v>0.0004</v>
@@ -7614,13 +7614,13 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>1393.91829609222</v>
+        <v>1965.754371968641</v>
       </c>
       <c r="C362">
-        <v>885.600730962459</v>
+        <v>293.257039589385</v>
       </c>
       <c r="D362">
-        <v>0.0003926772264792793</v>
+        <v>0.0003999999999999999</v>
       </c>
       <c r="E362">
         <v>0.0004</v>
@@ -7634,13 +7634,13 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>1393.91829609222</v>
+        <v>1965.75437196864</v>
       </c>
       <c r="C363">
-        <v>885.600730962459</v>
+        <v>293.2570395893865</v>
       </c>
       <c r="D363">
-        <v>0.0003926772264792793</v>
+        <v>0.0003999999999999997</v>
       </c>
       <c r="E363">
         <v>0.0004</v>
@@ -7654,13 +7654,13 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>1393.920848028901</v>
+        <v>1965.754371968639</v>
       </c>
       <c r="C364">
-        <v>885.600730962459</v>
+        <v>293.2570395893874</v>
       </c>
       <c r="D364">
-        <v>0.0003926782196934721</v>
+        <v>0.0004</v>
       </c>
       <c r="E364">
         <v>0.0004</v>
@@ -7674,13 +7674,13 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>1393.91829609222</v>
+        <v>1965.075039570277</v>
       </c>
       <c r="C365">
-        <v>885.600730962459</v>
+        <v>294.1660331980721</v>
       </c>
       <c r="D365">
-        <v>0.0003926772264792793</v>
+        <v>0.0003999999999999997</v>
       </c>
       <c r="E365">
         <v>0.0004</v>
@@ -7694,13 +7694,13 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>1320.267266428244</v>
+        <v>1964.517061830771</v>
       </c>
       <c r="C366">
-        <v>991.9743867197087</v>
+        <v>294.985890367125</v>
       </c>
       <c r="D366">
-        <v>0.0004000000000000002</v>
+        <v>0.0003999999999999999</v>
       </c>
       <c r="E366">
         <v>0.0004</v>
@@ -7714,13 +7714,13 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>1320.255795573586</v>
+        <v>1964.517061830772</v>
       </c>
       <c r="C367">
-        <v>991.9877254296479</v>
+        <v>294.9858903671239</v>
       </c>
       <c r="D367">
-        <v>0.0004</v>
+        <v>0.0003999999999999996</v>
       </c>
       <c r="E367">
         <v>0.0004</v>
@@ -7734,13 +7734,13 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>1320.260904320771</v>
+        <v>1964.517061830772</v>
       </c>
       <c r="C368">
-        <v>991.9825159234981</v>
+        <v>294.9858903671242</v>
       </c>
       <c r="D368">
-        <v>0.0004</v>
+        <v>0.0003999999999999996</v>
       </c>
       <c r="E368">
         <v>0.0004</v>
@@ -7754,13 +7754,13 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>1320.260904320771</v>
+        <v>1847.501980975189</v>
       </c>
       <c r="C369">
-        <v>991.9825159234985</v>
+        <v>490.5525010402014</v>
       </c>
       <c r="D369">
-        <v>0.0004</v>
+        <v>0.0003999999999999995</v>
       </c>
       <c r="E369">
         <v>0.0004</v>
@@ -7774,13 +7774,13 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>1320.260904320771</v>
+        <v>1847.501980975189</v>
       </c>
       <c r="C370">
-        <v>991.9825159234983</v>
+        <v>490.5525010402014</v>
       </c>
       <c r="D370">
-        <v>0.0004</v>
+        <v>0.0003999999999999995</v>
       </c>
       <c r="E370">
         <v>0.0004</v>
@@ -7794,13 +7794,13 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>1320.262501480324</v>
+        <v>1726.740698586867</v>
       </c>
       <c r="C371">
-        <v>991.9808872634361</v>
+        <v>711.2250988713985</v>
       </c>
       <c r="D371">
-        <v>0.0004</v>
+        <v>0.0003999999999999997</v>
       </c>
       <c r="E371">
         <v>0.0004</v>
@@ -7814,13 +7814,13 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>1220.478685778151</v>
+        <v>1726.740698586865</v>
       </c>
       <c r="C372">
-        <v>1178.949102891587</v>
+        <v>711.2250988713995</v>
       </c>
       <c r="D372">
-        <v>0.0004000000000000002</v>
+        <v>0.0003999999999999997</v>
       </c>
       <c r="E372">
         <v>0.0004</v>
@@ -7834,13 +7834,13 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>1220.478685778152</v>
+        <v>1537.539156706393</v>
       </c>
       <c r="C373">
-        <v>1178.949102891586</v>
+        <v>1101.193285259499</v>
       </c>
       <c r="D373">
-        <v>0.0004000000000000001</v>
+        <v>0.0004</v>
       </c>
       <c r="E373">
         <v>0.0004</v>
@@ -7854,13 +7854,13 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>1220.478685778151</v>
+        <v>1051.799585824491</v>
       </c>
       <c r="C374">
-        <v>1178.949102891587</v>
+        <v>2121.576926474565</v>
       </c>
       <c r="D374">
-        <v>0.0004000000000000001</v>
+        <v>0.0003999999999999994</v>
       </c>
       <c r="E374">
         <v>0.0004</v>
@@ -7874,13 +7874,13 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>462.0571176606778</v>
+        <v>994.6111969199821</v>
       </c>
       <c r="C375">
-        <v>2889.596909581966</v>
+        <v>2247.851146534647</v>
       </c>
       <c r="D375">
-        <v>0.0004000000000000001</v>
+        <v>0.0004</v>
       </c>
       <c r="E375">
         <v>0.0004</v>
@@ -7894,13 +7894,13 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>461.5575455378428</v>
+        <v>994.6111969199824</v>
       </c>
       <c r="C376">
-        <v>2890.745823232175</v>
+        <v>2247.851146534646</v>
       </c>
       <c r="D376">
-        <v>0.0004</v>
+        <v>0.0003999999999999996</v>
       </c>
       <c r="E376">
         <v>0.0004</v>
@@ -7914,13 +7914,13 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>286.341364930547</v>
+        <v>994.6111969199804</v>
       </c>
       <c r="C377">
-        <v>3330.027266892238</v>
+        <v>2247.851146534647</v>
       </c>
       <c r="D377">
-        <v>0.0004</v>
+        <v>0.0003999999999999998</v>
       </c>
       <c r="E377">
         <v>0.0004</v>
@@ -7934,13 +7934,13 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>286.3910997101117</v>
+        <v>994.6111969199821</v>
       </c>
       <c r="C378">
-        <v>3329.867017332819</v>
+        <v>2247.851146534646</v>
       </c>
       <c r="D378">
-        <v>0.0003999999999999999</v>
+        <v>0.0003999999999999995</v>
       </c>
       <c r="E378">
         <v>0.0004</v>
@@ -7954,13 +7954,13 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>286.3304706169803</v>
+        <v>994.5678469447763</v>
       </c>
       <c r="C379">
-        <v>3330.062369268569</v>
+        <v>2248.01430429022</v>
       </c>
       <c r="D379">
-        <v>0.0003999999999999999</v>
+        <v>0.0003999999999999992</v>
       </c>
       <c r="E379">
         <v>0.0004</v>
@@ -7974,13 +7974,13 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>286.3602361981775</v>
+        <v>836.1853358913222</v>
       </c>
       <c r="C380">
-        <v>3329.966462112362</v>
+        <v>2706.367949275908</v>
       </c>
       <c r="D380">
-        <v>0.0004</v>
+        <v>0.0004000000000000002</v>
       </c>
       <c r="E380">
         <v>0.0004</v>
@@ -7994,13 +7994,13 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>286.3156439675176</v>
+        <v>836.2442243097904</v>
       </c>
       <c r="C381">
-        <v>3330.110141955304</v>
+        <v>2706.142537374607</v>
       </c>
       <c r="D381">
-        <v>0.0004</v>
+        <v>0.0003999999999999999</v>
       </c>
       <c r="E381">
         <v>0.0004</v>
@@ -8014,13 +8014,13 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>181.3257717430653</v>
+        <v>836.1785747490054</v>
       </c>
       <c r="C382">
-        <v>3680.588461840844</v>
+        <v>2706.393829440202</v>
       </c>
       <c r="D382">
-        <v>0.0003999999999999999</v>
+        <v>0.0004000000000000003</v>
       </c>
       <c r="E382">
         <v>0.0004</v>
@@ -8034,13 +8034,13 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>156.8788116835494</v>
+        <v>742.1083247500542</v>
       </c>
       <c r="C383">
-        <v>3769.415299647738</v>
+        <v>3035.826178348859</v>
       </c>
       <c r="D383">
-        <v>0.0003999999999999999</v>
+        <v>0.0004000000000000003</v>
       </c>
       <c r="E383">
         <v>0.0004</v>
@@ -8054,13 +8054,13 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>156.8788116835492</v>
+        <v>741.8160035431684</v>
       </c>
       <c r="C384">
-        <v>3769.415299647738</v>
+        <v>3036.945119572782</v>
       </c>
       <c r="D384">
-        <v>0.0003999999999999999</v>
+        <v>0.0004000000000000002</v>
       </c>
       <c r="E384">
         <v>0.0004</v>
@@ -8074,13 +8074,13 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>155.5879566489825</v>
+        <v>741.7944038757028</v>
       </c>
       <c r="C385">
-        <v>3774.883543268846</v>
+        <v>3037.027798344546</v>
       </c>
       <c r="D385">
-        <v>0.0004</v>
+        <v>0.0004000000000000006</v>
       </c>
       <c r="E385">
         <v>0.0004</v>
@@ -8094,13 +8094,13 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>155.5879566489831</v>
+        <v>741.7485384535856</v>
       </c>
       <c r="C386">
-        <v>3774.883543268846</v>
+        <v>3037.203361082911</v>
       </c>
       <c r="D386">
-        <v>0.0003999999999999999</v>
+        <v>0.0004000000000000002</v>
       </c>
       <c r="E386">
         <v>0.0004</v>
@@ -8114,13 +8114,13 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>155.5879566489868</v>
+        <v>741.6340093748195</v>
       </c>
       <c r="C387">
-        <v>3774.883543268847</v>
+        <v>3037.641753182256</v>
       </c>
       <c r="D387">
-        <v>0.0003999999999999999</v>
+        <v>0.0004</v>
       </c>
       <c r="E387">
         <v>0.0004</v>
@@ -8134,13 +8134,13 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>155.5879566489828</v>
+        <v>741.6340093748206</v>
       </c>
       <c r="C388">
-        <v>3774.883543268846</v>
+        <v>3037.641753182255</v>
       </c>
       <c r="D388">
-        <v>0.0003999999999999999</v>
+        <v>0.0004</v>
       </c>
       <c r="E388">
         <v>0.0004</v>
@@ -8154,13 +8154,13 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>155.5879566489818</v>
+        <v>741.6340093748183</v>
       </c>
       <c r="C389">
-        <v>3774.883543268847</v>
+        <v>3037.641753182258</v>
       </c>
       <c r="D389">
-        <v>0.0004</v>
+        <v>0.0004000000000000003</v>
       </c>
       <c r="E389">
         <v>0.0004</v>
@@ -8174,13 +8174,13 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>155.5879566489823</v>
+        <v>741.4594567471606</v>
       </c>
       <c r="C390">
-        <v>3774.883543268847</v>
+        <v>3038.891368334417</v>
       </c>
       <c r="D390">
-        <v>0.0004</v>
+        <v>0.0003999999999999999</v>
       </c>
       <c r="E390">
         <v>0.0004</v>
@@ -8194,10 +8194,10 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>155.5879566489813</v>
+        <v>741.4537150488111</v>
       </c>
       <c r="C391">
-        <v>3774.883543268847</v>
+        <v>3038.875678842818</v>
       </c>
       <c r="D391">
         <v>0.0004</v>
@@ -8214,13 +8214,13 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>155.5879566489822</v>
+        <v>736.7634647157864</v>
       </c>
       <c r="C392">
-        <v>3774.883543268847</v>
+        <v>3077.915332275867</v>
       </c>
       <c r="D392">
-        <v>0.0004</v>
+        <v>0.0004000000000000001</v>
       </c>
       <c r="E392">
         <v>0.0004</v>
@@ -8234,13 +8234,13 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>153.1594501017112</v>
+        <v>736.7634647157882</v>
       </c>
       <c r="C393">
-        <v>3796.590590590816</v>
+        <v>3077.915332275865</v>
       </c>
       <c r="D393">
-        <v>0.0003999999999999999</v>
+        <v>0.0004</v>
       </c>
       <c r="E393">
         <v>0.0004</v>
@@ -8254,13 +8254,13 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>153.1594501017114</v>
+        <v>736.7634647157931</v>
       </c>
       <c r="C394">
-        <v>3796.590590590816</v>
+        <v>3077.915332275856</v>
       </c>
       <c r="D394">
-        <v>0.0004</v>
+        <v>0.000399999999999999</v>
       </c>
       <c r="E394">
         <v>0.0004</v>
@@ -8274,13 +8274,13 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>153.1594501017107</v>
+        <v>736.7508884331268</v>
       </c>
       <c r="C395">
-        <v>3796.590590590818</v>
+        <v>3078.168929592867</v>
       </c>
       <c r="D395">
-        <v>0.0004</v>
+        <v>0.0004000000000000003</v>
       </c>
       <c r="E395">
         <v>0.0004</v>
@@ -8294,13 +8294,13 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>153.1594501017112</v>
+        <v>736.7367398459685</v>
       </c>
       <c r="C396">
-        <v>3796.590590590816</v>
+        <v>3078.454232002155</v>
       </c>
       <c r="D396">
-        <v>0.0004</v>
+        <v>0.0003999999999999997</v>
       </c>
       <c r="E396">
         <v>0.0004</v>
@@ -8314,13 +8314,13 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>153.1594501017109</v>
+        <v>736.7215216311415</v>
       </c>
       <c r="C397">
-        <v>3796.590590590816</v>
+        <v>3078.761103162342</v>
       </c>
       <c r="D397">
-        <v>0.0003999999999999999</v>
+        <v>0.0003999999999999986</v>
       </c>
       <c r="E397">
         <v>0.0004</v>
@@ -8334,13 +8334,13 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>153.1594501017119</v>
+        <v>736.5703313919555</v>
       </c>
       <c r="C398">
-        <v>3796.590590590816</v>
+        <v>3083.710200935008</v>
       </c>
       <c r="D398">
-        <v>0.0003999999999999999</v>
+        <v>0.0003999999999999998</v>
       </c>
       <c r="E398">
         <v>0.0004</v>
@@ -8354,13 +8354,13 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>153.1594501017125</v>
+        <v>735.6273191811821</v>
       </c>
       <c r="C399">
-        <v>3796.590590590815</v>
+        <v>3145.43022024795</v>
       </c>
       <c r="D399">
-        <v>0.0004</v>
+        <v>0.0003999999999999996</v>
       </c>
       <c r="E399">
         <v>0.0004</v>
@@ -8374,13 +8374,13 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>153.1594501017117</v>
+        <v>735.6218227274053</v>
       </c>
       <c r="C400">
-        <v>3796.590590590816</v>
+        <v>3145.430220247951</v>
       </c>
       <c r="D400">
-        <v>0.0003999999999999999</v>
+        <v>0.0003999999999999996</v>
       </c>
       <c r="E400">
         <v>0.0004</v>
@@ -8394,13 +8394,13 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>153.1594501017113</v>
+        <v>735.6218227274065</v>
       </c>
       <c r="C401">
-        <v>3796.590590590816</v>
+        <v>3145.43022024795</v>
       </c>
       <c r="D401">
-        <v>0.0003999999999999999</v>
+        <v>0.0003999999999999996</v>
       </c>
       <c r="E401">
         <v>0.0004</v>
@@ -8414,13 +8414,13 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>3566.970675546178</v>
+        <v>2480.353140888903</v>
       </c>
       <c r="C402">
         <v>0</v>
       </c>
       <c r="D402">
-        <v>0.0002396380553830374</v>
+        <v>0.0003000066405945358</v>
       </c>
       <c r="E402">
         <v>0.0003</v>
@@ -8434,13 +8434,13 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>2323.292969737585</v>
+        <v>2442.028440039682</v>
       </c>
       <c r="C403">
         <v>0</v>
       </c>
       <c r="D403">
-        <v>0.0002029253323812533</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E403">
         <v>0.0003</v>
@@ -8454,13 +8454,13 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C404">
         <v>0</v>
       </c>
       <c r="D404">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E404">
         <v>0.0003</v>
@@ -8474,13 +8474,13 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>2322.831473893173</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C405">
         <v>0</v>
       </c>
       <c r="D405">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E405">
         <v>0.0003</v>
@@ -8494,13 +8494,13 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C406">
         <v>0</v>
       </c>
       <c r="D406">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E406">
         <v>0.0003</v>
@@ -8514,13 +8514,13 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C407">
         <v>0</v>
       </c>
       <c r="D407">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E407">
         <v>0.0003</v>
@@ -8534,13 +8534,13 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C408">
         <v>0</v>
       </c>
       <c r="D408">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E408">
         <v>0.0003</v>
@@ -8554,13 +8554,13 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C409">
         <v>0</v>
       </c>
       <c r="D409">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E409">
         <v>0.0003</v>
@@ -8574,13 +8574,13 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>2322.831473893174</v>
+        <v>2442.028440025695</v>
       </c>
       <c r="C410">
         <v>0</v>
       </c>
       <c r="D410">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E410">
         <v>0.0003</v>
@@ -8594,13 +8594,13 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C411">
         <v>0</v>
       </c>
       <c r="D411">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E411">
         <v>0.0003</v>
@@ -8614,13 +8614,13 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C412">
         <v>0</v>
       </c>
       <c r="D412">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E412">
         <v>0.0003</v>
@@ -8634,13 +8634,13 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C413">
         <v>0</v>
       </c>
       <c r="D413">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E413">
         <v>0.0003</v>
@@ -8654,13 +8654,13 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>2322.831473893174</v>
+        <v>2442.028440025692</v>
       </c>
       <c r="C414">
         <v>0</v>
       </c>
       <c r="D414">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E414">
         <v>0.0003</v>
@@ -8674,13 +8674,13 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C415">
         <v>0</v>
       </c>
       <c r="D415">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E415">
         <v>0.0003</v>
@@ -8694,13 +8694,13 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C416">
         <v>0</v>
       </c>
       <c r="D416">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E416">
         <v>0.0003</v>
@@ -8714,13 +8714,13 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C417">
         <v>0</v>
       </c>
       <c r="D417">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E417">
         <v>0.0003</v>
@@ -8734,13 +8734,13 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C418">
         <v>0</v>
       </c>
       <c r="D418">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E418">
         <v>0.0003</v>
@@ -8754,13 +8754,13 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C419">
         <v>0</v>
       </c>
       <c r="D419">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E419">
         <v>0.0003</v>
@@ -8774,13 +8774,13 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>2322.831473893174</v>
+        <v>2442.028440025692</v>
       </c>
       <c r="C420">
         <v>0</v>
       </c>
       <c r="D420">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E420">
         <v>0.0003</v>
@@ -8794,13 +8794,13 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C421">
         <v>0</v>
       </c>
       <c r="D421">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E421">
         <v>0.0003</v>
@@ -8814,13 +8814,13 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>2322.831473893173</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C422">
         <v>0</v>
       </c>
       <c r="D422">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E422">
         <v>0.0003</v>
@@ -8834,13 +8834,13 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C423">
         <v>0</v>
       </c>
       <c r="D423">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E423">
         <v>0.0003</v>
@@ -8854,13 +8854,13 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C424">
         <v>0</v>
       </c>
       <c r="D424">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E424">
         <v>0.0003</v>
@@ -8874,13 +8874,13 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C425">
         <v>0</v>
       </c>
       <c r="D425">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E425">
         <v>0.0003</v>
@@ -8894,13 +8894,13 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C426">
         <v>0</v>
       </c>
       <c r="D426">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E426">
         <v>0.0003</v>
@@ -8914,13 +8914,13 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>2322.831473893173</v>
+        <v>2442.028440025694</v>
       </c>
       <c r="C427">
         <v>0</v>
       </c>
       <c r="D427">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E427">
         <v>0.0003</v>
@@ -8934,13 +8934,13 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>2322.831473893174</v>
+        <v>2442.028440039683</v>
       </c>
       <c r="C428">
         <v>0</v>
       </c>
       <c r="D428">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E428">
         <v>0.0003</v>
@@ -8954,13 +8954,13 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>2322.831473893173</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C429">
         <v>0</v>
       </c>
       <c r="D429">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E429">
         <v>0.0003</v>
@@ -8974,13 +8974,13 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C430">
         <v>0</v>
       </c>
       <c r="D430">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E430">
         <v>0.0003</v>
@@ -8994,13 +8994,13 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C431">
         <v>0</v>
       </c>
       <c r="D431">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E431">
         <v>0.0003</v>
@@ -9014,13 +9014,13 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C432">
         <v>0</v>
       </c>
       <c r="D432">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E432">
         <v>0.0003</v>
@@ -9034,13 +9034,13 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>2322.831473893174</v>
+        <v>2442.028440025692</v>
       </c>
       <c r="C433">
         <v>0</v>
       </c>
       <c r="D433">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E433">
         <v>0.0003</v>
@@ -9054,13 +9054,13 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>2322.831473893174</v>
+        <v>2442.028440025694</v>
       </c>
       <c r="C434">
         <v>0</v>
       </c>
       <c r="D434">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E434">
         <v>0.0003</v>
@@ -9074,13 +9074,13 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C435">
         <v>0</v>
       </c>
       <c r="D435">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E435">
         <v>0.0003</v>
@@ -9094,13 +9094,13 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C436">
         <v>0</v>
       </c>
       <c r="D436">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E436">
         <v>0.0003</v>
@@ -9114,13 +9114,13 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>2322.831473893174</v>
+        <v>2442.028440025692</v>
       </c>
       <c r="C437">
         <v>0</v>
       </c>
       <c r="D437">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E437">
         <v>0.0003</v>
@@ -9134,13 +9134,13 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C438">
         <v>0</v>
       </c>
       <c r="D438">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E438">
         <v>0.0003</v>
@@ -9154,13 +9154,13 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>2322.831473893174</v>
+        <v>2442.028440025694</v>
       </c>
       <c r="C439">
         <v>0</v>
       </c>
       <c r="D439">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E439">
         <v>0.0003</v>
@@ -9174,13 +9174,13 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C440">
         <v>0</v>
       </c>
       <c r="D440">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E440">
         <v>0.0003</v>
@@ -9194,13 +9194,13 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>2322.831473893174</v>
+        <v>2442.028440025692</v>
       </c>
       <c r="C441">
         <v>0</v>
       </c>
       <c r="D441">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E441">
         <v>0.0003</v>
@@ -9214,13 +9214,13 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C442">
         <v>0</v>
       </c>
       <c r="D442">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E442">
         <v>0.0003</v>
@@ -9234,13 +9234,13 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C443">
         <v>0</v>
       </c>
       <c r="D443">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E443">
         <v>0.0003</v>
@@ -9254,13 +9254,13 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C444">
         <v>0</v>
       </c>
       <c r="D444">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E444">
         <v>0.0003</v>
@@ -9274,13 +9274,13 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C445">
         <v>0</v>
       </c>
       <c r="D445">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E445">
         <v>0.0003</v>
@@ -9294,13 +9294,13 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>2322.831473893174</v>
+        <v>2442.028440025694</v>
       </c>
       <c r="C446">
         <v>0</v>
       </c>
       <c r="D446">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E446">
         <v>0.0003</v>
@@ -9314,13 +9314,13 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>2322.831473893174</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C447">
         <v>0</v>
       </c>
       <c r="D447">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E447">
         <v>0.0003</v>
@@ -9334,13 +9334,13 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>2322.831473893173</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C448">
         <v>0</v>
       </c>
       <c r="D448">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E448">
         <v>0.0003</v>
@@ -9354,13 +9354,13 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>2322.831473893173</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C449">
         <v>0</v>
       </c>
       <c r="D449">
-        <v>0.0002028797021190492</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E449">
         <v>0.0003</v>
@@ -9374,13 +9374,13 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>2317.745562413131</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C450">
-        <v>3.820128443082933</v>
+        <v>0</v>
       </c>
       <c r="D450">
-        <v>0.0002040773553125429</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E450">
         <v>0.0003</v>
@@ -9394,13 +9394,13 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>2022.444508954786</v>
+        <v>2442.028440025694</v>
       </c>
       <c r="C451">
-        <v>234.4475691579454</v>
+        <v>0</v>
       </c>
       <c r="D451">
-        <v>0.0002777480281995352</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E451">
         <v>0.0003</v>
@@ -9414,13 +9414,13 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>2022.444508954786</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C452">
-        <v>234.4475691579454</v>
+        <v>0</v>
       </c>
       <c r="D452">
-        <v>0.0002777480281995352</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E452">
         <v>0.0003</v>
@@ -9434,13 +9434,13 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>2022.483774337325</v>
+        <v>2442.028440025694</v>
       </c>
       <c r="C453">
-        <v>234.4475691579454</v>
+        <v>0</v>
       </c>
       <c r="D453">
-        <v>0.0002777596007323801</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E453">
         <v>0.0003</v>
@@ -9454,13 +9454,13 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>2022.484422292821</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C454">
-        <v>234.4475691579454</v>
+        <v>0</v>
       </c>
       <c r="D454">
-        <v>0.0002777597917017731</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E454">
         <v>0.0003</v>
@@ -9474,13 +9474,13 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>2022.444508954786</v>
+        <v>2442.028440025695</v>
       </c>
       <c r="C455">
-        <v>234.4475691579454</v>
+        <v>0</v>
       </c>
       <c r="D455">
-        <v>0.0002777480281995352</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E455">
         <v>0.0003</v>
@@ -9494,13 +9494,13 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>2022.444508954786</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C456">
-        <v>234.4475691579454</v>
+        <v>0</v>
       </c>
       <c r="D456">
-        <v>0.0002777480281995352</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E456">
         <v>0.0003</v>
@@ -9514,13 +9514,13 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>2022.444508954786</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C457">
-        <v>234.4475691579454</v>
+        <v>0</v>
       </c>
       <c r="D457">
-        <v>0.0002777480281995352</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E457">
         <v>0.0003</v>
@@ -9534,13 +9534,13 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>1901.401365721248</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C458">
-        <v>359.509100927421</v>
+        <v>0</v>
       </c>
       <c r="D458">
-        <v>0.0003</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E458">
         <v>0.0003</v>
@@ -9554,13 +9554,13 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>1901.401365721248</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C459">
-        <v>359.5091009274211</v>
+        <v>0</v>
       </c>
       <c r="D459">
-        <v>0.0002999999999999999</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E459">
         <v>0.0003</v>
@@ -9574,13 +9574,13 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>1901.401365721247</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C460">
-        <v>359.5091009274215</v>
+        <v>0</v>
       </c>
       <c r="D460">
-        <v>0.0003</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E460">
         <v>0.0003</v>
@@ -9594,13 +9594,13 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>1899.475455135457</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C461">
-        <v>361.747292764136</v>
+        <v>0</v>
       </c>
       <c r="D461">
-        <v>0.0002999999999999999</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E461">
         <v>0.0003</v>
@@ -9614,13 +9614,13 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>1898.875676502542</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C462">
-        <v>362.4391313637399</v>
+        <v>0</v>
       </c>
       <c r="D462">
-        <v>0.0003</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E462">
         <v>0.0003</v>
@@ -9634,13 +9634,13 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>1898.883235785475</v>
+        <v>2442.028440025694</v>
       </c>
       <c r="C463">
-        <v>362.4343213611525</v>
+        <v>0</v>
       </c>
       <c r="D463">
-        <v>0.0003</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E463">
         <v>0.0003</v>
@@ -9654,13 +9654,13 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>1898.875676502542</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C464">
-        <v>362.4391313637397</v>
+        <v>0</v>
       </c>
       <c r="D464">
-        <v>0.0002999999999999999</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E464">
         <v>0.0003</v>
@@ -9674,13 +9674,13 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>1898.875676502541</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C465">
-        <v>362.4391313637399</v>
+        <v>0</v>
       </c>
       <c r="D465">
-        <v>0.0003</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E465">
         <v>0.0003</v>
@@ -9694,13 +9694,13 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>1898.875676502542</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C466">
-        <v>362.4391313637398</v>
+        <v>0</v>
       </c>
       <c r="D466">
-        <v>0.0003</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E466">
         <v>0.0003</v>
@@ -9714,13 +9714,13 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>1898.875676502542</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C467">
-        <v>362.4391313637398</v>
+        <v>0</v>
       </c>
       <c r="D467">
-        <v>0.0002999999999999999</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E467">
         <v>0.0003</v>
@@ -9734,13 +9734,13 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>1898.875676502541</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C468">
-        <v>362.4391313637402</v>
+        <v>0</v>
       </c>
       <c r="D468">
-        <v>0.0003</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E468">
         <v>0.0003</v>
@@ -9754,13 +9754,13 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>1898.875676502541</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C469">
-        <v>362.43913136374</v>
+        <v>0</v>
       </c>
       <c r="D469">
-        <v>0.0003</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E469">
         <v>0.0003</v>
@@ -9774,13 +9774,13 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>1788.523933390675</v>
+        <v>2442.028440025693</v>
       </c>
       <c r="C470">
-        <v>551.3534259767605</v>
+        <v>0</v>
       </c>
       <c r="D470">
-        <v>0.0003</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E470">
         <v>0.0003</v>
@@ -9794,13 +9794,13 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>1788.566210824266</v>
+        <v>2315.040457254595</v>
       </c>
       <c r="C471">
-        <v>551.2708513515947</v>
+        <v>231.8124032704708</v>
       </c>
       <c r="D471">
-        <v>0.0003</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E471">
         <v>0.0003</v>
@@ -9814,13 +9814,13 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>1676.90626708235</v>
+        <v>1788.639647901965</v>
       </c>
       <c r="C472">
-        <v>761.9053431569967</v>
+        <v>1237.795707128111</v>
       </c>
       <c r="D472">
-        <v>0.0003000000000000001</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E472">
         <v>0.0003</v>
@@ -9834,13 +9834,13 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>1677.09904019235</v>
+        <v>1685.605950449666</v>
       </c>
       <c r="C473">
-        <v>761.5288262791188</v>
+        <v>1447.794888710944</v>
       </c>
       <c r="D473">
-        <v>0.0003000000000000001</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E473">
         <v>0.0003</v>
@@ -9854,13 +9854,13 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>1344.865224466258</v>
+        <v>1685.605950449666</v>
       </c>
       <c r="C474">
-        <v>1479.095633680135</v>
+        <v>1447.794888710944</v>
       </c>
       <c r="D474">
-        <v>0.0003000000000000002</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E474">
         <v>0.0003</v>
@@ -9874,13 +9874,13 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>969.9703203764158</v>
+        <v>1683.669766560437</v>
       </c>
       <c r="C475">
-        <v>2303.975083009405</v>
+        <v>1452.124274443071</v>
       </c>
       <c r="D475">
-        <v>0.0003000000000000001</v>
+        <v>0.0003</v>
       </c>
       <c r="E475">
         <v>0.0003</v>
@@ -9894,13 +9894,13 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>969.9703203764158</v>
+        <v>1666.864323127459</v>
       </c>
       <c r="C476">
-        <v>2303.975083009405</v>
+        <v>1492.214966373331</v>
       </c>
       <c r="D476">
-        <v>0.0003000000000000001</v>
+        <v>0.0002999999999999996</v>
       </c>
       <c r="E476">
         <v>0.0003</v>
@@ -9914,13 +9914,13 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>969.9703203764162</v>
+        <v>1666.864323127458</v>
       </c>
       <c r="C477">
-        <v>2303.975083009404</v>
+        <v>1492.214966373331</v>
       </c>
       <c r="D477">
-        <v>0.0003000000000000001</v>
+        <v>0.0002999999999999997</v>
       </c>
       <c r="E477">
         <v>0.0003</v>
@@ -9934,13 +9934,13 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>969.7543825067005</v>
+        <v>1612.465542761767</v>
       </c>
       <c r="C478">
-        <v>2304.5475997358</v>
+        <v>1635.254054150197</v>
       </c>
       <c r="D478">
-        <v>0.0003</v>
+        <v>0.0002999999999999999</v>
       </c>
       <c r="E478">
         <v>0.0003</v>
@@ -9954,13 +9954,13 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>791.5195017626673</v>
+        <v>1612.465542761767</v>
       </c>
       <c r="C479">
-        <v>2804.818669172574</v>
+        <v>1635.254054150197</v>
       </c>
       <c r="D479">
-        <v>0.0003</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E479">
         <v>0.0003</v>
@@ -9974,13 +9974,13 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>788.4113740828224</v>
+        <v>1612.465542761765</v>
       </c>
       <c r="C480">
-        <v>2813.864420475405</v>
+        <v>1635.254054150199</v>
       </c>
       <c r="D480">
-        <v>0.0003000000000000001</v>
+        <v>0.0002999999999999999</v>
       </c>
       <c r="E480">
         <v>0.0003</v>
@@ -9994,13 +9994,13 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>788.4113740828221</v>
+        <v>1612.465542761766</v>
       </c>
       <c r="C481">
-        <v>2813.864420475405</v>
+        <v>1635.254054150199</v>
       </c>
       <c r="D481">
-        <v>0.0003000000000000001</v>
+        <v>0.0002999999999999999</v>
       </c>
       <c r="E481">
         <v>0.0003</v>
@@ -10014,13 +10014,13 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>692.2903620544522</v>
+        <v>1612.465542761766</v>
       </c>
       <c r="C482">
-        <v>3140.345115820282</v>
+        <v>1635.254054150197</v>
       </c>
       <c r="D482">
-        <v>0.0003</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E482">
         <v>0.0003</v>
@@ -10034,13 +10034,13 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>692.290362054452</v>
+        <v>1612.465542761767</v>
       </c>
       <c r="C483">
-        <v>3140.345115820282</v>
+        <v>1635.254054150197</v>
       </c>
       <c r="D483">
-        <v>0.0003</v>
+        <v>0.0002999999999999999</v>
       </c>
       <c r="E483">
         <v>0.0003</v>
@@ -10054,10 +10054,10 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>692.2903620544515</v>
+        <v>1589.196364433575</v>
       </c>
       <c r="C484">
-        <v>3140.345115820282</v>
+        <v>1725.220692934198</v>
       </c>
       <c r="D484">
         <v>0.0003</v>
@@ -10074,13 +10074,13 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>692.2903620544511</v>
+        <v>1589.117914553334</v>
       </c>
       <c r="C485">
-        <v>3140.345115820282</v>
+        <v>1725.55481726539</v>
       </c>
       <c r="D485">
-        <v>0.0003</v>
+        <v>0.0002999999999999999</v>
       </c>
       <c r="E485">
         <v>0.0003</v>
@@ -10094,13 +10094,13 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>692.2903620544523</v>
+        <v>1588.657254927347</v>
       </c>
       <c r="C486">
-        <v>3140.345115820282</v>
+        <v>1727.603161271172</v>
       </c>
       <c r="D486">
-        <v>0.0003</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E486">
         <v>0.0003</v>
@@ -10114,13 +10114,13 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>692.2903620544512</v>
+        <v>1588.657254927347</v>
       </c>
       <c r="C487">
-        <v>3140.345115820282</v>
+        <v>1727.603161271171</v>
       </c>
       <c r="D487">
-        <v>0.0002999999999999999</v>
+        <v>0.0002999999999999998</v>
       </c>
       <c r="E487">
         <v>0.0003</v>
@@ -10134,13 +10134,13 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>692.2903620544515</v>
+        <v>1546.782115905658</v>
       </c>
       <c r="C488">
-        <v>3140.345115820282</v>
+        <v>1946.321826226247</v>
       </c>
       <c r="D488">
-        <v>0.0003</v>
+        <v>0.0002999999999999999</v>
       </c>
       <c r="E488">
         <v>0.0003</v>
@@ -10154,13 +10154,13 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>692.2903620544524</v>
+        <v>1546.782115905657</v>
       </c>
       <c r="C489">
-        <v>3140.345115820282</v>
+        <v>1946.321826226247</v>
       </c>
       <c r="D489">
-        <v>0.0003</v>
+        <v>0.0002999999999999999</v>
       </c>
       <c r="E489">
         <v>0.0003</v>
@@ -10174,13 +10174,13 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>692.2903620544523</v>
+        <v>1546.782115905657</v>
       </c>
       <c r="C490">
-        <v>3140.345115820282</v>
+        <v>1946.321826226247</v>
       </c>
       <c r="D490">
-        <v>0.0003</v>
+        <v>0.0002999999999999999</v>
       </c>
       <c r="E490">
         <v>0.0003</v>
@@ -10194,13 +10194,13 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>692.2903620544513</v>
+        <v>1546.782115905657</v>
       </c>
       <c r="C491">
-        <v>3140.345115820282</v>
+        <v>1946.321826226248</v>
       </c>
       <c r="D491">
-        <v>0.0002999999999999999</v>
+        <v>0.0003</v>
       </c>
       <c r="E491">
         <v>0.0003</v>
@@ -10214,13 +10214,13 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>682.4294653906684</v>
+        <v>1546.782115905656</v>
       </c>
       <c r="C492">
-        <v>3220.616587218839</v>
+        <v>1946.321826226248</v>
       </c>
       <c r="D492">
-        <v>0.0003000000000000001</v>
+        <v>0.0003</v>
       </c>
       <c r="E492">
         <v>0.0003</v>
@@ -10234,10 +10234,10 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>682.4294653906691</v>
+        <v>1546.782115905656</v>
       </c>
       <c r="C493">
-        <v>3220.616587218839</v>
+        <v>1946.321826226249</v>
       </c>
       <c r="D493">
         <v>0.0003</v>
@@ -10254,13 +10254,13 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>682.4294653906693</v>
+        <v>1546.782115905658</v>
       </c>
       <c r="C494">
-        <v>3220.616587218838</v>
+        <v>1946.321826226247</v>
       </c>
       <c r="D494">
-        <v>0.0003</v>
+        <v>0.0002999999999999999</v>
       </c>
       <c r="E494">
         <v>0.0003</v>
@@ -10274,13 +10274,13 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>682.4294653906686</v>
+        <v>1546.782115905655</v>
       </c>
       <c r="C495">
-        <v>3220.616587218839</v>
+        <v>1946.321826226249</v>
       </c>
       <c r="D495">
-        <v>0.0003000000000000001</v>
+        <v>0.0003</v>
       </c>
       <c r="E495">
         <v>0.0003</v>
@@ -10294,10 +10294,10 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>682.4294653906691</v>
+        <v>1546.782115905656</v>
       </c>
       <c r="C496">
-        <v>3220.616587218839</v>
+        <v>1946.321826226248</v>
       </c>
       <c r="D496">
         <v>0.0003</v>
@@ -10314,13 +10314,13 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>682.4294653906694</v>
+        <v>1546.782115905658</v>
       </c>
       <c r="C497">
-        <v>3220.616587218839</v>
+        <v>1946.321826226246</v>
       </c>
       <c r="D497">
-        <v>0.0003000000000000001</v>
+        <v>0.0002999999999999999</v>
       </c>
       <c r="E497">
         <v>0.0003</v>
@@ -10334,13 +10334,13 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>682.4294653906699</v>
+        <v>1546.782115905656</v>
       </c>
       <c r="C498">
-        <v>3220.616587218838</v>
+        <v>1946.321826226248</v>
       </c>
       <c r="D498">
-        <v>0.0003000000000000001</v>
+        <v>0.0003</v>
       </c>
       <c r="E498">
         <v>0.0003</v>
@@ -10354,13 +10354,13 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>682.4294653906691</v>
+        <v>1546.782115905658</v>
       </c>
       <c r="C499">
-        <v>3220.616587218839</v>
+        <v>1946.321826226247</v>
       </c>
       <c r="D499">
-        <v>0.0003</v>
+        <v>0.0002999999999999999</v>
       </c>
       <c r="E499">
         <v>0.0003</v>
@@ -10374,13 +10374,13 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>682.4294653906685</v>
+        <v>1546.782115905658</v>
       </c>
       <c r="C500">
-        <v>3220.616587218839</v>
+        <v>1946.321826226247</v>
       </c>
       <c r="D500">
-        <v>0.0003000000000000001</v>
+        <v>0.0003</v>
       </c>
       <c r="E500">
         <v>0.0003</v>
@@ -10394,10 +10394,10 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>682.4294653906688</v>
+        <v>1546.782115905656</v>
       </c>
       <c r="C501">
-        <v>3220.616587218839</v>
+        <v>1946.321826226249</v>
       </c>
       <c r="D501">
         <v>0.0003</v>
